--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>12.53680492509227</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.5478052959880308</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3.21403644733564</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>4.092962197257503</v>
+      </c>
+      <c r="F2">
         <v>4.381753881292092</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>17.65982759504064</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.6927041454225816</v>
       </c>
-      <c r="H2" t="n">
-        <v>39.03293229017125</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>43.12589448742875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>9.32414542847771</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.5706305166541988</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3.139291413676672</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>2.880232657329354</v>
+      </c>
+      <c r="F3">
         <v>4.568653335944361</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>12.41185996066535</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.5297149347349155</v>
       </c>
-      <c r="H3" t="n">
-        <v>30.54429559015321</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>33.42452824748256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10.08395178757421</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.6162809579865347</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.616076178063893</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>4.092962197257503</v>
+      </c>
+      <c r="F4">
         <v>3.758755699117861</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>12.24525781354233</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.2444838160314994</v>
       </c>
-      <c r="H4" t="n">
-        <v>29.56480625231633</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>33.65776844957382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>9.398474311432812</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.7532322819835426</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3.438271548312545</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>3.33500623480241</v>
+      </c>
+      <c r="F5">
         <v>3.156524123016104</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>11.07904278368115</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.4482203293910823</v>
       </c>
-      <c r="H5" t="n">
-        <v>28.27376537781724</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>31.60877161261965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>9.761859961435482</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.9130088266467181</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.915056312699767</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>4.320348985994032</v>
+      </c>
+      <c r="F6">
         <v>3.654922668755488</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>11.49554815148872</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.4889676320629989</v>
       </c>
-      <c r="H6" t="n">
-        <v>29.22936355308917</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>33.54971253908321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>9.596684665979719</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.7304070613173745</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.587761615630482</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>3.2592106385569</v>
+      </c>
+      <c r="F7">
         <v>4.111788002349925</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>11.74545137217326</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.4482203293910823</v>
       </c>
-      <c r="H7" t="n">
-        <v>30.22031304684184</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>33.47952368539875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>10.10872808189258</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.7988827233158786</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2.466586110745956</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>3.486597427293429</v>
+      </c>
+      <c r="F8">
         <v>3.696455880900438</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>8.996515944643347</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.5704622374068319</v>
       </c>
-      <c r="H8" t="n">
-        <v>26.63763097890503</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>30.12422840619846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>13.79213717055605</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.4565044133233591</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4.933172221491912</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>4.699326967221578</v>
+      </c>
+      <c r="F9">
         <v>4.09102139627745</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>8.746612723958808</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.4074730267191657</v>
       </c>
-      <c r="H9" t="n">
-        <v>32.42692095232675</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>37.12624791954833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>16.81484507739648</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.6162809579865347</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2.915056312699767</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>4.775122563467087</v>
+      </c>
+      <c r="F10">
         <v>2.450459516551975</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>3.332042942460499</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.8964406587821645</v>
       </c>
-      <c r="H10" t="n">
-        <v>27.02512546587742</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>31.80024802934451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>16.19543771943738</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.5478052959880308</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2.466586110745956</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>5.608874122167689</v>
+      </c>
+      <c r="F11">
         <v>1.744394910087847</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>2.082526839037811</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.1629892106876663</v>
       </c>
-      <c r="H11" t="n">
-        <v>23.19974008598469</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>28.80861420815238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11.65311709440395</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.7532322819835426</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2.167605976110083</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>5.305691737185653</v>
+      </c>
+      <c r="F12">
         <v>1.100630121841141</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>2.832236501091423</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.08149460534383315</v>
       </c>
-      <c r="H12" t="n">
-        <v>18.58831658077397</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>23.89400831795962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>8.407422538698238</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.186911474640734</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1.569645706838336</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>4.547735774730559</v>
+      </c>
+      <c r="F13">
         <v>0.8929640611163978</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>2.915537574652936</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.2037365133595828</v>
       </c>
-      <c r="H13" t="n">
-        <v>15.17621786930623</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>19.72395364403679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>6.301437521637288</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.6847566199850387</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.8221953702486524</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="F14">
         <v>0.5606983639568079</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>1.499419324107224</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.2037365133595828</v>
       </c>
-      <c r="H14" t="n">
-        <v>10.0722437132946</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>14.54418389177965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3.972465855711053</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.9130088266467181</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.8221953702486524</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>2.501254676101808</v>
+      </c>
+      <c r="F15">
         <v>0.4983985457393848</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>1.082913956299662</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.08149460534383315</v>
       </c>
-      <c r="H15" t="n">
-        <v>7.370477159989303</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>9.871731836091108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2.337230430699019</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.524980075321863</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.2989801346358735</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>1.13693394368264</v>
+      </c>
+      <c r="F16">
         <v>0.456865333594436</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>1.832623618353274</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.08149460534383315</v>
       </c>
-      <c r="H16" t="n">
-        <v>5.532174197948299</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>6.669108141630939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>1.412248776146757</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.3880287513248552</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.07474503365896838</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.4547735774730561</v>
+      </c>
+      <c r="F17">
         <v>0.6645313943191798</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>1.749322544791761</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>0.04074730267191658</v>
       </c>
-      <c r="H17" t="n">
-        <v>4.329623802913438</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>4.784397380386494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1.057121890916871</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.5934557373203668</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.1494900673179368</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.1515911924910187</v>
+      </c>
+      <c r="F18">
         <v>0.5606983639568079</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>1.249516103422687</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>3.610282162934669</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>3.761873355425688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.6194073579591041</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.2739026479940154</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.2242351009769051</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.07579559624550933</v>
+      </c>
+      <c r="F19">
         <v>0.4360987275219618</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>1.832623618353274</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>3.386267452805261</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>3.46206304905077</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.8423940068243815</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.2054269859955116</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.2242351009769051</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.6063647699640746</v>
+      </c>
+      <c r="F20">
         <v>0.4153321214494873</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.9996128827381492</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>2.687001097984435</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>3.293365867948509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.693046778421551</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3195530893263514</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.2242351009769051</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.3789779812275467</v>
+      </c>
+      <c r="F21">
         <v>0.5606983639568079</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>2.082526839037811</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.1222419080157497</v>
       </c>
-      <c r="H21" t="n">
-        <v>5.002302079735176</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>5.381280060962722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>5.021328981855138</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.4108539719910232</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>1.420155639520399</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>1.667503117401205</v>
+      </c>
+      <c r="F22">
         <v>1.28752957649341</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>3.998451530952597</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.04074730267191658</v>
       </c>
-      <c r="H22" t="n">
-        <v>12.17906700348449</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>13.84657012088569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>8.52304524551727</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.2967278686601834</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1.943370875133178</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="F23">
         <v>1.765161516160322</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>5.497870855059822</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.4889676320629989</v>
       </c>
-      <c r="H23" t="n">
-        <v>18.51514399259377</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>22.98708417107883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>13.38745769668943</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.2967278686601834</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>1.943370875133178</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>5.608874122167689</v>
+      </c>
+      <c r="F24">
         <v>2.637358971204244</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>6.247580517113434</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.8556933561102479</v>
       </c>
-      <c r="H24" t="n">
-        <v>25.36818928491072</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>30.97706340707841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>13.01581328191398</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.5021548546556949</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2.092860942451115</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>5.305691737185653</v>
+      </c>
+      <c r="F25">
         <v>2.201260243682283</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>7.497096620536118</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.1629892106876663</v>
       </c>
-      <c r="H25" t="n">
-        <v>25.47217515392686</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>30.77786689111251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>12.53680492509227</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.5478052959880308</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3.21403644733564</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>4.092962197257503</v>
+      </c>
+      <c r="F26">
         <v>4.381753881292092</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>17.65982759504064</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.6927041454225816</v>
       </c>
-      <c r="H26" t="n">
-        <v>39.03293229017125</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>43.12589448742875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>10.23260955348439</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.6162809579865347</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2.092860942451115</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>4.017166601011994</v>
+      </c>
+      <c r="F27">
         <v>4.236387638784771</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>15.24409646175678</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.5297149347349155</v>
       </c>
-      <c r="H27" t="n">
-        <v>32.95195048919851</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>36.9691170902105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>10.9924159125809</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.095610591976062</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>3.139291413676672</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="F28">
         <v>3.156524123016104</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>13.57807499052653</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.3667257240472492</v>
       </c>
-      <c r="H28" t="n">
-        <v>32.32864275582352</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>36.80058293430857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>9.93529402166403</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.524980075321863</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2.840311279040798</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>4.850918159712597</v>
+      </c>
+      <c r="F29">
         <v>2.782725213711565</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>8.580010576835782</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.08149460534383315</v>
       </c>
-      <c r="H29" t="n">
-        <v>24.74481577191787</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>29.59573393163047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>10.43081990803131</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.5706305166541988</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2.690821211722861</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>4.017166601011994</v>
+      </c>
+      <c r="F30">
         <v>4.27792085092972</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>10.49593526875057</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.3259784213753326</v>
       </c>
-      <c r="H30" t="n">
-        <v>28.79210617746399</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>32.80927277847599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>10.66206532166938</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.5706305166541988</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2.840311279040798</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>4.244553389748522</v>
+      </c>
+      <c r="F31">
         <v>3.405723395885797</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>9.746225606696958</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.8149460534383314</v>
       </c>
-      <c r="H31" t="n">
-        <v>28.03990217338546</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>32.28445556313399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>12.54506368986505</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.6162809579865347</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>1.793880807815241</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>4.623531370976069</v>
+      </c>
+      <c r="F32">
         <v>4.028721578060028</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>9.163118091766369</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.5704622374068319</v>
       </c>
-      <c r="H32" t="n">
-        <v>28.71752736290005</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>33.34105873387612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>13.79213717055605</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.4565044133233591</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>4.933172221491912</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>4.699326967221578</v>
+      </c>
+      <c r="F33">
         <v>4.09102139627745</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>8.746612723958808</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.4074730267191657</v>
       </c>
-      <c r="H33" t="n">
-        <v>32.42692095232675</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>37.12624791954833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>16.81484507739648</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.6162809579865347</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2.915056312699767</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>4.775122563467087</v>
+      </c>
+      <c r="F34">
         <v>2.450459516551975</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>3.332042942460499</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.8964406587821645</v>
       </c>
-      <c r="H34" t="n">
-        <v>27.02512546587742</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>31.80024802934451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>16.19543771943738</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.5478052959880308</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2.466586110745956</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>5.608874122167689</v>
+      </c>
+      <c r="F35">
         <v>1.744394910087847</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>2.082526839037811</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.1629892106876663</v>
       </c>
-      <c r="H35" t="n">
-        <v>23.19974008598469</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>28.80861420815238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>11.65311709440395</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.7532322819835426</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2.167605976110083</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>5.305691737185653</v>
+      </c>
+      <c r="F36">
         <v>1.100630121841141</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>2.832236501091423</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.08149460534383315</v>
       </c>
-      <c r="H36" t="n">
-        <v>18.58831658077397</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>23.89400831795962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>8.407422538698238</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.186911474640734</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>1.569645706838336</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>4.547735774730559</v>
+      </c>
+      <c r="F37">
         <v>0.8929640611163978</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>2.915537574652936</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.2037365133595828</v>
       </c>
-      <c r="H37" t="n">
-        <v>15.17621786930623</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>19.72395364403679</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>6.301437521637288</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.6847566199850387</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.8221953702486524</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="F38">
         <v>0.5606983639568079</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>1.499419324107224</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.2037365133595828</v>
       </c>
-      <c r="H38" t="n">
-        <v>10.0722437132946</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>14.54418389177965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>3.972465855711053</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.9130088266467181</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.8221953702486524</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>2.501254676101808</v>
+      </c>
+      <c r="F39">
         <v>0.4983985457393848</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>1.082913956299662</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.08149460534383315</v>
       </c>
-      <c r="H39" t="n">
-        <v>7.370477159989303</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>9.871731836091108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2.337230430699019</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.524980075321863</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.2989801346358735</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>1.13693394368264</v>
+      </c>
+      <c r="F40">
         <v>0.456865333594436</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>1.832623618353274</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.08149460534383315</v>
       </c>
-      <c r="H40" t="n">
-        <v>5.532174197948299</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>6.669108141630939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1.412248776146757</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.3880287513248552</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.07474503365896838</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.4547735774730561</v>
+      </c>
+      <c r="F41">
         <v>0.6645313943191798</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>1.749322544791761</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.04074730267191658</v>
       </c>
-      <c r="H41" t="n">
-        <v>4.329623802913438</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>4.784397380386494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1.057121890916871</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.5934557373203668</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.1494900673179368</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.1515911924910187</v>
+      </c>
+      <c r="F42">
         <v>0.5606983639568079</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>1.249516103422687</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>3.610282162934669</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>3.761873355425688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.6194073579591041</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.2739026479940154</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.2242351009769051</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.07579559624550933</v>
+      </c>
+      <c r="F43">
         <v>0.4360987275219618</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>1.832623618353274</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>3.386267452805261</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>3.46206304905077</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.8423940068243815</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.2054269859955116</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.2242351009769051</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.6063647699640746</v>
+      </c>
+      <c r="F44">
         <v>0.4153321214494873</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.9996128827381492</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>2.687001097984435</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>3.293365867948509</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.693046778421551</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.3195530893263514</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.2242351009769051</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.3789779812275467</v>
+      </c>
+      <c r="F45">
         <v>0.5606983639568079</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>2.082526839037811</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.1222419080157497</v>
       </c>
-      <c r="H45" t="n">
-        <v>5.002302079735176</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>5.381280060962722</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>5.021328981855138</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.4108539719910232</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>1.420155639520399</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>1.667503117401205</v>
+      </c>
+      <c r="F46">
         <v>1.28752957649341</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>3.998451530952597</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.04074730267191658</v>
       </c>
-      <c r="H46" t="n">
-        <v>12.17906700348449</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>13.84657012088569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>8.52304524551727</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.2967278686601834</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>1.943370875133178</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>4.471940178485053</v>
+      </c>
+      <c r="F47">
         <v>1.765161516160322</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>5.497870855059822</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.4889676320629989</v>
       </c>
-      <c r="H47" t="n">
-        <v>18.51514399259377</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>22.98708417107883</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>13.38745769668943</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.2967278686601834</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>1.943370875133178</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>5.608874122167689</v>
+      </c>
+      <c r="F48">
         <v>2.637358971204244</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>6.247580517113434</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.8556933561102479</v>
       </c>
-      <c r="H48" t="n">
-        <v>25.36818928491072</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>30.97706340707841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>13.01581328191398</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.5021548546556949</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>2.092860942451115</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>5.305691737185653</v>
+      </c>
+      <c r="F49">
         <v>2.201260243682283</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>7.497096620536118</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.1629892106876663</v>
       </c>
-      <c r="H49" t="n">
-        <v>25.47217515392686</v>
+      <c r="I49">
+        <v>30.77786689111251</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>12.53680492509227</v>
+        <v>21.25806052515646</v>
       </c>
       <c r="C2">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D2">
-        <v>3.21403644733564</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="E2">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F2">
-        <v>4.381753881292092</v>
+        <v>7.429930494364852</v>
       </c>
       <c r="G2">
-        <v>17.65982759504064</v>
+        <v>29.94492505246021</v>
       </c>
       <c r="H2">
-        <v>0.6927041454225816</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="I2">
-        <v>43.12589448742875</v>
+        <v>73.1265167395531</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>9.32414542847771</v>
+        <v>15.8105074656796</v>
       </c>
       <c r="C3">
-        <v>0.5706305166541988</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="D3">
-        <v>3.139291413676672</v>
+        <v>5.323146310147401</v>
       </c>
       <c r="E3">
-        <v>2.880232657329354</v>
+        <v>4.883872766775861</v>
       </c>
       <c r="F3">
-        <v>4.568653335944361</v>
+        <v>7.746846960949133</v>
       </c>
       <c r="G3">
-        <v>12.41185996066535</v>
+        <v>21.04619732460647</v>
       </c>
       <c r="H3">
-        <v>0.5297149347349155</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="I3">
-        <v>33.42452824748256</v>
+        <v>56.67637398486175</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>10.08395178757421</v>
+        <v>17.09887477023454</v>
       </c>
       <c r="C4">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D4">
-        <v>2.616076178063893</v>
+        <v>4.435955258456166</v>
       </c>
       <c r="E4">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F4">
-        <v>3.758755699117861</v>
+        <v>6.373542272417241</v>
       </c>
       <c r="G4">
-        <v>12.24525781354233</v>
+        <v>20.76369803165873</v>
       </c>
       <c r="H4">
-        <v>0.2444838160314994</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I4">
-        <v>33.65776844957382</v>
+        <v>57.07186824058171</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>9.398474311432812</v>
+        <v>15.93654339764693</v>
       </c>
       <c r="C5">
-        <v>0.7532322819835426</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="D5">
-        <v>3.438271548312545</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="E5">
-        <v>3.33500623480241</v>
+        <v>5.655010572056262</v>
       </c>
       <c r="F5">
-        <v>3.156524123016104</v>
+        <v>5.35236699120122</v>
       </c>
       <c r="G5">
-        <v>11.07904278368115</v>
+        <v>18.78620298102457</v>
       </c>
       <c r="H5">
-        <v>0.4482203293910823</v>
+        <v>0.760025775924009</v>
       </c>
       <c r="I5">
-        <v>31.60877161261965</v>
+        <v>53.5974822996594</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>9.761859961435482</v>
+        <v>16.55271906504277</v>
       </c>
       <c r="C6">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D6">
-        <v>2.915056312699767</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="E6">
-        <v>4.320348985994032</v>
+        <v>7.325809150163791</v>
       </c>
       <c r="F6">
-        <v>3.654922668755488</v>
+        <v>6.197477568759307</v>
       </c>
       <c r="G6">
-        <v>11.49554815148872</v>
+        <v>19.49245121339392</v>
       </c>
       <c r="H6">
-        <v>0.4889676320629989</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I6">
-        <v>33.54971253908321</v>
+        <v>56.88864300105413</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>9.596684665979719</v>
+        <v>16.27263921622648</v>
       </c>
       <c r="C7">
-        <v>0.7304070613173745</v>
+        <v>1.238516321364244</v>
       </c>
       <c r="D7">
-        <v>3.587761615630482</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="E7">
-        <v>3.2592106385569</v>
+        <v>5.526487604509529</v>
       </c>
       <c r="F7">
-        <v>4.111788002349925</v>
+        <v>6.972162264854221</v>
       </c>
       <c r="G7">
-        <v>11.74545137217326</v>
+        <v>19.91620015281552</v>
       </c>
       <c r="H7">
-        <v>0.4482203293910823</v>
+        <v>0.760025775924009</v>
       </c>
       <c r="I7">
-        <v>33.47952368539875</v>
+        <v>56.7696271187196</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>10.10872808189258</v>
+        <v>17.14088674755698</v>
       </c>
       <c r="C8">
-        <v>0.7988827233158786</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="D8">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E8">
-        <v>3.486597427293429</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="F8">
-        <v>3.696455880900438</v>
+        <v>6.267903450222481</v>
       </c>
       <c r="G8">
-        <v>8.996515944643347</v>
+        <v>15.25496181917784</v>
       </c>
       <c r="H8">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I8">
-        <v>30.12422840619846</v>
+        <v>51.08021338442347</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>13.79213717055605</v>
+        <v>23.38666737616026</v>
       </c>
       <c r="C9">
-        <v>0.4565044133233591</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="D9">
-        <v>4.933172221491912</v>
+        <v>8.364944201660201</v>
       </c>
       <c r="E9">
-        <v>4.699326967221578</v>
+        <v>7.968423987897458</v>
       </c>
       <c r="F9">
-        <v>4.09102139627745</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="G9">
-        <v>8.746612723958808</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="H9">
-        <v>0.4074730267191657</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="I9">
-        <v>37.12624791954833</v>
+        <v>62.95320299401673</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>16.81484507739648</v>
+        <v>28.51212860949838</v>
       </c>
       <c r="C10">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D10">
-        <v>2.915056312699767</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="E10">
-        <v>4.775122563467087</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="F10">
-        <v>2.450459516551975</v>
+        <v>4.155127006327263</v>
       </c>
       <c r="G10">
-        <v>3.332042942460499</v>
+        <v>5.649985858954759</v>
       </c>
       <c r="H10">
-        <v>0.8964406587821645</v>
+        <v>1.520051551848018</v>
       </c>
       <c r="I10">
-        <v>31.80024802934451</v>
+        <v>53.92215970193199</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>16.19543771943738</v>
+        <v>27.46182917643728</v>
       </c>
       <c r="C11">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D11">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E11">
-        <v>5.608874122167689</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="F11">
-        <v>1.744394910087847</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="G11">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H11">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I11">
-        <v>28.80861420815238</v>
+        <v>48.84938930947576</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>11.65311709440395</v>
+        <v>19.7596333339893</v>
       </c>
       <c r="C12">
-        <v>0.7532322819835426</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="D12">
-        <v>2.167605976110083</v>
+        <v>3.675505785577968</v>
       </c>
       <c r="E12">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F12">
-        <v>1.100630121841141</v>
+        <v>1.866285858774109</v>
       </c>
       <c r="G12">
-        <v>2.832236501091423</v>
+        <v>4.802487980111545</v>
       </c>
       <c r="H12">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I12">
-        <v>23.89400831795962</v>
+        <v>40.51592714784457</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>8.407422538698238</v>
+        <v>14.25606430474919</v>
       </c>
       <c r="C13">
-        <v>1.186911474640734</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="D13">
-        <v>1.569645706838336</v>
+        <v>2.6615731550737</v>
       </c>
       <c r="E13">
-        <v>4.547735774730559</v>
+        <v>7.711378052803992</v>
       </c>
       <c r="F13">
-        <v>0.8929640611163978</v>
+        <v>1.51415645145824</v>
       </c>
       <c r="G13">
-        <v>2.915537574652936</v>
+        <v>4.943737626585413</v>
       </c>
       <c r="H13">
-        <v>0.2037365133595828</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I13">
-        <v>19.72395364403679</v>
+        <v>33.44496487467107</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>6.301437521637288</v>
+        <v>10.68504623234148</v>
       </c>
       <c r="C14">
-        <v>0.6847566199850387</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="D14">
-        <v>0.8221953702486524</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="E14">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F14">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G14">
-        <v>1.499419324107224</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="H14">
-        <v>0.2037365133595828</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I14">
-        <v>14.54418389177965</v>
+        <v>24.66187703388722</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>3.972465855711053</v>
+        <v>6.735920364031787</v>
       </c>
       <c r="C15">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D15">
-        <v>0.8221953702486524</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="E15">
-        <v>2.501254676101808</v>
+        <v>4.241257929042194</v>
       </c>
       <c r="F15">
-        <v>0.4983985457393848</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="G15">
-        <v>1.082913956299662</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="H15">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I15">
-        <v>9.871731836091108</v>
+        <v>16.73902354815449</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>2.337230430699019</v>
+        <v>3.96312986075051</v>
       </c>
       <c r="C16">
-        <v>0.524980075321863</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="D16">
-        <v>0.2989801346358735</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="E16">
-        <v>1.13693394368264</v>
+        <v>1.927844513200998</v>
       </c>
       <c r="F16">
-        <v>0.456865333594436</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="G16">
-        <v>1.832623618353274</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="H16">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I16">
-        <v>6.669108141630939</v>
+        <v>11.30848771841768</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>1.412248776146757</v>
+        <v>2.394682707379284</v>
       </c>
       <c r="C17">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D17">
-        <v>0.07474503365896838</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="E17">
-        <v>0.4547735774730561</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="F17">
-        <v>0.6645313943191798</v>
+        <v>1.126814103410783</v>
       </c>
       <c r="G17">
-        <v>1.749322544791761</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="H17">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I17">
-        <v>4.784397380386494</v>
+        <v>8.11267381891623</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>1.057121890916871</v>
+        <v>1.792511032424259</v>
       </c>
       <c r="C18">
-        <v>0.5934557373203668</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="D18">
-        <v>0.1494900673179368</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="E18">
-        <v>0.1515911924910187</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="F18">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G18">
-        <v>1.249516103422687</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="I18">
-        <v>3.761873355425688</v>
+        <v>6.378828733113123</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.6194073579591041</v>
+        <v>1.05029943306109</v>
       </c>
       <c r="C19">
-        <v>0.2739026479940154</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="D19">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E19">
-        <v>0.07579559624550933</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="F19">
-        <v>0.4360987275219618</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="G19">
-        <v>1.832623618353274</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="I19">
-        <v>3.46206304905077</v>
+        <v>5.870454735346957</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.8423940068243815</v>
+        <v>1.428407228963081</v>
       </c>
       <c r="C20">
-        <v>0.2054269859955116</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="D20">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E20">
-        <v>0.6063647699640746</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="F20">
-        <v>0.4153321214494873</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="G20">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="I20">
-        <v>3.293365867948509</v>
+        <v>5.584402993477907</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>1.693046778421551</v>
+        <v>2.870818450366978</v>
       </c>
       <c r="C21">
-        <v>0.3195530893263514</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="D21">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E21">
-        <v>0.3789779812275467</v>
+        <v>0.6426148377336659</v>
       </c>
       <c r="F21">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G21">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H21">
-        <v>0.1222419080157497</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I21">
-        <v>5.381280060962722</v>
+        <v>9.124779233806356</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>5.021328981855138</v>
+        <v>8.514427404015231</v>
       </c>
       <c r="C22">
-        <v>0.4108539719910232</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="D22">
-        <v>1.420155639520399</v>
+        <v>2.408089997447633</v>
       </c>
       <c r="E22">
-        <v>1.667503117401205</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="F22">
-        <v>1.28752957649341</v>
+        <v>2.183202325358392</v>
       </c>
       <c r="G22">
-        <v>3.998451530952597</v>
+        <v>6.779983030745709</v>
       </c>
       <c r="H22">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I22">
-        <v>13.84657012088569</v>
+        <v>23.47896672671921</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>8.52304524551727</v>
+        <v>14.45212019892059</v>
       </c>
       <c r="C23">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D23">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E23">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F23">
-        <v>1.765161516160322</v>
+        <v>2.993099962184893</v>
       </c>
       <c r="G23">
-        <v>5.497870855059822</v>
+        <v>9.32247666727535</v>
       </c>
       <c r="H23">
-        <v>0.4889676320629989</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I23">
-        <v>22.98708417107883</v>
+        <v>38.97809924661192</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>13.38745769668943</v>
+        <v>22.70047174656035</v>
       </c>
       <c r="C24">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D24">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E24">
-        <v>5.608874122167689</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="F24">
-        <v>2.637358971204244</v>
+        <v>4.472043472911545</v>
       </c>
       <c r="G24">
-        <v>6.247580517113434</v>
+        <v>10.59372348554017</v>
       </c>
       <c r="H24">
-        <v>0.8556933561102479</v>
+        <v>1.45095829949129</v>
       </c>
       <c r="I24">
-        <v>30.97706340707841</v>
+        <v>52.52632490765471</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>13.01581328191398</v>
+        <v>22.0702920867237</v>
       </c>
       <c r="C25">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D25">
-        <v>2.092860942451115</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="E25">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F25">
-        <v>2.201260243682283</v>
+        <v>3.732571717548218</v>
       </c>
       <c r="G25">
-        <v>7.497096620536118</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="H25">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I25">
-        <v>30.77786689111251</v>
+        <v>52.1885569023212</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>12.53680492509227</v>
+        <v>21.25806052515646</v>
       </c>
       <c r="C26">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D26">
-        <v>3.21403644733564</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="E26">
-        <v>4.092962197257503</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F26">
-        <v>4.381753881292092</v>
+        <v>7.429930494364852</v>
       </c>
       <c r="G26">
-        <v>17.65982759504064</v>
+        <v>29.94492505246021</v>
       </c>
       <c r="H26">
-        <v>0.6927041454225816</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="I26">
-        <v>43.12589448742875</v>
+        <v>73.1265167395531</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>10.23260955348439</v>
+        <v>17.3509466341692</v>
       </c>
       <c r="C27">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D27">
-        <v>2.092860942451115</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="E27">
-        <v>4.017166601011994</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="F27">
-        <v>4.236387638784771</v>
+        <v>7.183439909243742</v>
       </c>
       <c r="G27">
-        <v>15.24409646175678</v>
+        <v>25.84868530471802</v>
       </c>
       <c r="H27">
-        <v>0.5297149347349155</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="I27">
-        <v>36.9691170902105</v>
+        <v>62.68676376166131</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>10.9924159125809</v>
+        <v>18.63931393872413</v>
       </c>
       <c r="C28">
-        <v>1.095610591976062</v>
+        <v>1.857774482046366</v>
       </c>
       <c r="D28">
-        <v>3.139291413676672</v>
+        <v>5.323146310147401</v>
       </c>
       <c r="E28">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F28">
-        <v>3.156524123016104</v>
+        <v>5.35236699120122</v>
       </c>
       <c r="G28">
-        <v>13.57807499052653</v>
+        <v>23.02369237524064</v>
       </c>
       <c r="H28">
-        <v>0.3667257240472492</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="I28">
-        <v>36.80058293430857</v>
+        <v>62.40098845382757</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>9.93529402166403</v>
+        <v>16.84680290629988</v>
       </c>
       <c r="C29">
-        <v>0.524980075321863</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="D29">
-        <v>2.840311279040798</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="E29">
-        <v>4.850918159712597</v>
+        <v>8.225469922990925</v>
       </c>
       <c r="F29">
-        <v>2.782725213711565</v>
+        <v>4.718534058032654</v>
       </c>
       <c r="G29">
-        <v>8.580010576835782</v>
+        <v>14.5487135868085</v>
       </c>
       <c r="H29">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I29">
-        <v>29.59573393163047</v>
+        <v>50.18407057972124</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>10.43081990803131</v>
+        <v>17.68704245274874</v>
       </c>
       <c r="C30">
-        <v>0.5706305166541988</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="D30">
-        <v>2.690821211722861</v>
+        <v>4.562696837269201</v>
       </c>
       <c r="E30">
-        <v>4.017166601011994</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="F30">
-        <v>4.27792085092972</v>
+        <v>7.253865790706916</v>
       </c>
       <c r="G30">
-        <v>10.49593526875057</v>
+        <v>17.79745545570749</v>
       </c>
       <c r="H30">
-        <v>0.3259784213753326</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="I30">
-        <v>32.80927277847599</v>
+        <v>55.63311471132884</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>10.66206532166938</v>
+        <v>18.07915424109155</v>
       </c>
       <c r="C31">
-        <v>0.5706305166541988</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="D31">
-        <v>2.840311279040798</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="E31">
-        <v>4.244553389748522</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="F31">
-        <v>3.405723395885797</v>
+        <v>5.774922279980264</v>
       </c>
       <c r="G31">
-        <v>9.746225606696958</v>
+        <v>16.52620863744266</v>
       </c>
       <c r="H31">
-        <v>0.8149460534383314</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="I31">
-        <v>32.28445556313399</v>
+        <v>54.74320725922718</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>12.54506368986505</v>
+        <v>21.27206451759727</v>
       </c>
       <c r="C32">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D32">
-        <v>1.793880807815241</v>
+        <v>3.041797891512799</v>
       </c>
       <c r="E32">
-        <v>4.623531370976069</v>
+        <v>7.839901020350728</v>
       </c>
       <c r="F32">
-        <v>4.028721578060028</v>
+        <v>6.831310501927874</v>
       </c>
       <c r="G32">
-        <v>9.163118091766369</v>
+        <v>15.53746111212559</v>
       </c>
       <c r="H32">
-        <v>0.5704622374068319</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I32">
-        <v>33.34105873387612</v>
+        <v>56.53483872265954</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>13.79213717055605</v>
+        <v>23.38666737616026</v>
       </c>
       <c r="C33">
-        <v>0.4565044133233591</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="D33">
-        <v>4.933172221491912</v>
+        <v>8.364944201660201</v>
       </c>
       <c r="E33">
-        <v>4.699326967221578</v>
+        <v>7.968423987897458</v>
       </c>
       <c r="F33">
-        <v>4.09102139627745</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="G33">
-        <v>8.746612723958808</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="H33">
-        <v>0.4074730267191657</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="I33">
-        <v>37.12624791954833</v>
+        <v>62.95320299401673</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>16.81484507739648</v>
+        <v>28.51212860949838</v>
       </c>
       <c r="C34">
-        <v>0.6162809579865347</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D34">
-        <v>2.915056312699767</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="E34">
-        <v>4.775122563467087</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="F34">
-        <v>2.450459516551975</v>
+        <v>4.155127006327263</v>
       </c>
       <c r="G34">
-        <v>3.332042942460499</v>
+        <v>5.649985858954759</v>
       </c>
       <c r="H34">
-        <v>0.8964406587821645</v>
+        <v>1.520051551848018</v>
       </c>
       <c r="I34">
-        <v>31.80024802934451</v>
+        <v>53.92215970193199</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>16.19543771943738</v>
+        <v>27.46182917643728</v>
       </c>
       <c r="C35">
-        <v>0.5478052959880308</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D35">
-        <v>2.466586110745956</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E35">
-        <v>5.608874122167689</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="F35">
-        <v>1.744394910087847</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="G35">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H35">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I35">
-        <v>28.80861420815238</v>
+        <v>48.84938930947576</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>11.65311709440395</v>
+        <v>19.7596333339893</v>
       </c>
       <c r="C36">
-        <v>0.7532322819835426</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="D36">
-        <v>2.167605976110083</v>
+        <v>3.675505785577968</v>
       </c>
       <c r="E36">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F36">
-        <v>1.100630121841141</v>
+        <v>1.866285858774109</v>
       </c>
       <c r="G36">
-        <v>2.832236501091423</v>
+        <v>4.802487980111545</v>
       </c>
       <c r="H36">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I36">
-        <v>23.89400831795962</v>
+        <v>40.51592714784457</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>8.407422538698238</v>
+        <v>14.25606430474919</v>
       </c>
       <c r="C37">
-        <v>1.186911474640734</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="D37">
-        <v>1.569645706838336</v>
+        <v>2.6615731550737</v>
       </c>
       <c r="E37">
-        <v>4.547735774730559</v>
+        <v>7.711378052803992</v>
       </c>
       <c r="F37">
-        <v>0.8929640611163978</v>
+        <v>1.51415645145824</v>
       </c>
       <c r="G37">
-        <v>2.915537574652936</v>
+        <v>4.943737626585413</v>
       </c>
       <c r="H37">
-        <v>0.2037365133595828</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I37">
-        <v>19.72395364403679</v>
+        <v>33.44496487467107</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>6.301437521637288</v>
+        <v>10.68504623234148</v>
       </c>
       <c r="C38">
-        <v>0.6847566199850387</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="D38">
-        <v>0.8221953702486524</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="E38">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F38">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G38">
-        <v>1.499419324107224</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="H38">
-        <v>0.2037365133595828</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I38">
-        <v>14.54418389177965</v>
+        <v>24.66187703388722</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>3.972465855711053</v>
+        <v>6.735920364031787</v>
       </c>
       <c r="C39">
-        <v>0.9130088266467181</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D39">
-        <v>0.8221953702486524</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="E39">
-        <v>2.501254676101808</v>
+        <v>4.241257929042194</v>
       </c>
       <c r="F39">
-        <v>0.4983985457393848</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="G39">
-        <v>1.082913956299662</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="H39">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I39">
-        <v>9.871731836091108</v>
+        <v>16.73902354815449</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>2.337230430699019</v>
+        <v>3.96312986075051</v>
       </c>
       <c r="C40">
-        <v>0.524980075321863</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="D40">
-        <v>0.2989801346358735</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="E40">
-        <v>1.13693394368264</v>
+        <v>1.927844513200998</v>
       </c>
       <c r="F40">
-        <v>0.456865333594436</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="G40">
-        <v>1.832623618353274</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="H40">
-        <v>0.08149460534383315</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I40">
-        <v>6.669108141630939</v>
+        <v>11.30848771841768</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>1.412248776146757</v>
+        <v>2.394682707379284</v>
       </c>
       <c r="C41">
-        <v>0.3880287513248552</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D41">
-        <v>0.07474503365896838</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="E41">
-        <v>0.4547735774730561</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="F41">
-        <v>0.6645313943191798</v>
+        <v>1.126814103410783</v>
       </c>
       <c r="G41">
-        <v>1.749322544791761</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="H41">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I41">
-        <v>4.784397380386494</v>
+        <v>8.11267381891623</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>1.057121890916871</v>
+        <v>1.792511032424259</v>
       </c>
       <c r="C42">
-        <v>0.5934557373203668</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="D42">
-        <v>0.1494900673179368</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="E42">
-        <v>0.1515911924910187</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="F42">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G42">
-        <v>1.249516103422687</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="I42">
-        <v>3.761873355425688</v>
+        <v>6.378828733113123</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.6194073579591041</v>
+        <v>1.05029943306109</v>
       </c>
       <c r="C43">
-        <v>0.2739026479940154</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="D43">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E43">
-        <v>0.07579559624550933</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="F43">
-        <v>0.4360987275219618</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="G43">
-        <v>1.832623618353274</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="I43">
-        <v>3.46206304905077</v>
+        <v>5.870454735346957</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.8423940068243815</v>
+        <v>1.428407228963081</v>
       </c>
       <c r="C44">
-        <v>0.2054269859955116</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="D44">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E44">
-        <v>0.6063647699640746</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="F44">
-        <v>0.4153321214494873</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="G44">
-        <v>0.9996128827381492</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="I44">
-        <v>3.293365867948509</v>
+        <v>5.584402993477907</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.693046778421551</v>
+        <v>2.870818450366978</v>
       </c>
       <c r="C45">
-        <v>0.3195530893263514</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="D45">
-        <v>0.2242351009769051</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E45">
-        <v>0.3789779812275467</v>
+        <v>0.6426148377336659</v>
       </c>
       <c r="F45">
-        <v>0.5606983639568079</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G45">
-        <v>2.082526839037811</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H45">
-        <v>0.1222419080157497</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I45">
-        <v>5.381280060962722</v>
+        <v>9.124779233806356</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>5.021328981855138</v>
+        <v>8.514427404015231</v>
       </c>
       <c r="C46">
-        <v>0.4108539719910232</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="D46">
-        <v>1.420155639520399</v>
+        <v>2.408089997447633</v>
       </c>
       <c r="E46">
-        <v>1.667503117401205</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="F46">
-        <v>1.28752957649341</v>
+        <v>2.183202325358392</v>
       </c>
       <c r="G46">
-        <v>3.998451530952597</v>
+        <v>6.779983030745709</v>
       </c>
       <c r="H46">
-        <v>0.04074730267191658</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I46">
-        <v>13.84657012088569</v>
+        <v>23.47896672671921</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>8.52304524551727</v>
+        <v>14.45212019892059</v>
       </c>
       <c r="C47">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D47">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E47">
-        <v>4.471940178485053</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F47">
-        <v>1.765161516160322</v>
+        <v>2.993099962184893</v>
       </c>
       <c r="G47">
-        <v>5.497870855059822</v>
+        <v>9.32247666727535</v>
       </c>
       <c r="H47">
-        <v>0.4889676320629989</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I47">
-        <v>22.98708417107883</v>
+        <v>38.97809924661192</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>13.38745769668943</v>
+        <v>22.70047174656035</v>
       </c>
       <c r="C48">
-        <v>0.2967278686601834</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D48">
-        <v>1.943370875133178</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E48">
-        <v>5.608874122167689</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="F48">
-        <v>2.637358971204244</v>
+        <v>4.472043472911545</v>
       </c>
       <c r="G48">
-        <v>6.247580517113434</v>
+        <v>10.59372348554017</v>
       </c>
       <c r="H48">
-        <v>0.8556933561102479</v>
+        <v>1.45095829949129</v>
       </c>
       <c r="I48">
-        <v>30.97706340707841</v>
+        <v>52.52632490765471</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>13.01581328191398</v>
+        <v>22.0702920867237</v>
       </c>
       <c r="C49">
-        <v>0.5021548546556949</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D49">
-        <v>2.092860942451115</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="E49">
-        <v>5.305691737185653</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F49">
-        <v>2.201260243682283</v>
+        <v>3.732571717548218</v>
       </c>
       <c r="G49">
-        <v>7.497096620536118</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="H49">
-        <v>0.1629892106876663</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I49">
-        <v>30.77786689111251</v>
+        <v>52.1885569023212</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>21.25806052515646</v>
+        <v>12.50595142650713</v>
       </c>
       <c r="C2">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="D2">
-        <v>5.449887888960432</v>
+        <v>3.206126595537439</v>
       </c>
       <c r="E2">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="F2">
-        <v>7.429930494364852</v>
+        <v>4.370970237613768</v>
       </c>
       <c r="G2">
-        <v>29.94492505246021</v>
+        <v>17.61636616535637</v>
       </c>
       <c r="H2">
-        <v>1.174585290064378</v>
+        <v>0.6909993772221978</v>
       </c>
       <c r="I2">
-        <v>73.1265167395531</v>
+        <v>43.0197602105934</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>15.8105074656796</v>
+        <v>9.301198392968743</v>
       </c>
       <c r="C3">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="D3">
-        <v>5.323146310147401</v>
+        <v>3.131565511920289</v>
       </c>
       <c r="E3">
-        <v>4.883872766775861</v>
+        <v>2.873144307885557</v>
       </c>
       <c r="F3">
-        <v>7.746846960949133</v>
+        <v>4.557409726421938</v>
       </c>
       <c r="G3">
-        <v>21.04619732460647</v>
+        <v>12.38131395584009</v>
       </c>
       <c r="H3">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="I3">
-        <v>56.67637398486175</v>
+        <v>33.3422693592607</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>17.09887477023454</v>
+        <v>10.05913484306009</v>
       </c>
       <c r="C4">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="D4">
-        <v>4.435955258456166</v>
+        <v>2.609637926600241</v>
       </c>
       <c r="E4">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="F4">
-        <v>6.373542272417241</v>
+        <v>3.749505274919867</v>
       </c>
       <c r="G4">
-        <v>20.76369803165873</v>
+        <v>12.21512182220465</v>
       </c>
       <c r="H4">
-        <v>0.4145595141403686</v>
+        <v>0.2438821331372464</v>
       </c>
       <c r="I4">
-        <v>57.07186824058171</v>
+        <v>33.5749355493698</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>15.93654339764693</v>
+        <v>9.375344350042891</v>
       </c>
       <c r="C5">
-        <v>1.277219956406877</v>
+        <v>0.7513785520032713</v>
       </c>
       <c r="D5">
-        <v>5.830112625399535</v>
+        <v>3.429809846388888</v>
       </c>
       <c r="E5">
-        <v>5.655010572056262</v>
+        <v>3.326798672288541</v>
       </c>
       <c r="F5">
-        <v>5.35236699120122</v>
+        <v>3.14875581098243</v>
       </c>
       <c r="G5">
-        <v>18.78620298102457</v>
+        <v>11.05177688675659</v>
       </c>
       <c r="H5">
-        <v>0.760025775924009</v>
+        <v>0.4471172440849516</v>
       </c>
       <c r="I5">
-        <v>53.5974822996594</v>
+        <v>31.53098136254756</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>16.55271906504277</v>
+        <v>9.737835695738751</v>
       </c>
       <c r="C6">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="D6">
-        <v>4.942921573708299</v>
+        <v>2.90788226106884</v>
       </c>
       <c r="E6">
-        <v>7.325809150163791</v>
+        <v>4.309716461828336</v>
       </c>
       <c r="F6">
-        <v>6.197477568759307</v>
+        <v>3.64592778113755</v>
       </c>
       <c r="G6">
-        <v>19.49245121339392</v>
+        <v>11.46725722084518</v>
       </c>
       <c r="H6">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="I6">
-        <v>56.88864300105413</v>
+        <v>33.46714556810925</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>16.27263921622648</v>
+        <v>9.573066902240638</v>
       </c>
       <c r="C7">
-        <v>1.238516321364244</v>
+        <v>0.7286095049728691</v>
       </c>
       <c r="D7">
-        <v>6.083595783025599</v>
+        <v>3.578932013623188</v>
       </c>
       <c r="E7">
-        <v>5.526487604509529</v>
+        <v>3.251189611554709</v>
       </c>
       <c r="F7">
-        <v>6.972162264854221</v>
+        <v>4.101668753779744</v>
       </c>
       <c r="G7">
-        <v>19.91620015281552</v>
+        <v>11.71654542129834</v>
       </c>
       <c r="H7">
-        <v>0.760025775924009</v>
+        <v>0.4471172440849516</v>
       </c>
       <c r="I7">
-        <v>56.7696271187196</v>
+        <v>33.39712945155444</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>17.14088674755698</v>
+        <v>10.08385016208481</v>
       </c>
       <c r="C8">
-        <v>1.354627226492142</v>
+        <v>0.7969166460640756</v>
       </c>
       <c r="D8">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="E8">
-        <v>5.912056507149727</v>
+        <v>3.478016793756201</v>
       </c>
       <c r="F8">
-        <v>6.267903450222481</v>
+        <v>3.687358778650478</v>
       </c>
       <c r="G8">
-        <v>15.25496181917784</v>
+        <v>8.974375216313625</v>
       </c>
       <c r="H8">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="I8">
-        <v>51.08021338442347</v>
+        <v>30.0500916668887</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>23.38666737616026</v>
+        <v>13.75819425709283</v>
       </c>
       <c r="C9">
-        <v>0.7740727008526525</v>
+        <v>0.4553809406080431</v>
       </c>
       <c r="D9">
-        <v>8.364944201660201</v>
+        <v>4.921031518731882</v>
       </c>
       <c r="E9">
-        <v>7.968423987897458</v>
+        <v>4.687761765497489</v>
       </c>
       <c r="F9">
-        <v>6.936949324122633</v>
+        <v>4.080953255023282</v>
       </c>
       <c r="G9">
-        <v>14.83121287975624</v>
+        <v>8.725087015860467</v>
       </c>
       <c r="H9">
-        <v>0.6909325235672807</v>
+        <v>0.4064702218954105</v>
       </c>
       <c r="I9">
-        <v>62.95320299401673</v>
+        <v>37.03487897470941</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>28.51212860949838</v>
+        <v>16.77346317810839</v>
       </c>
       <c r="C10">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="D10">
-        <v>4.942921573708299</v>
+        <v>2.90788226106884</v>
       </c>
       <c r="E10">
-        <v>8.09694695544419</v>
+        <v>4.76337082623132</v>
       </c>
       <c r="F10">
-        <v>4.155127006327263</v>
+        <v>2.444428853262676</v>
       </c>
       <c r="G10">
-        <v>5.649985858954759</v>
+        <v>3.32384267270875</v>
       </c>
       <c r="H10">
-        <v>1.520051551848018</v>
+        <v>0.8942344881699033</v>
       </c>
       <c r="I10">
-        <v>53.92215970193199</v>
+        <v>31.72198654937074</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>27.46182917643728</v>
+        <v>16.15558020249044</v>
       </c>
       <c r="C11">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="D11">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="E11">
-        <v>9.51069959845826</v>
+        <v>5.595070494303456</v>
       </c>
       <c r="F11">
-        <v>2.957887021453306</v>
+        <v>1.740101895542922</v>
       </c>
       <c r="G11">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="H11">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="I11">
-        <v>48.84938930947576</v>
+        <v>28.73771523963354</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>19.7596333339893</v>
+        <v>11.6244383812922</v>
       </c>
       <c r="C12">
-        <v>1.277219956406877</v>
+        <v>0.7513785520032713</v>
       </c>
       <c r="D12">
-        <v>3.675505785577968</v>
+        <v>2.162271424897343</v>
       </c>
       <c r="E12">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="F12">
-        <v>1.866285858774109</v>
+        <v>1.097921434092558</v>
       </c>
       <c r="G12">
-        <v>4.802487980111545</v>
+        <v>2.825266271802438</v>
       </c>
       <c r="H12">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I12">
-        <v>40.51592714784457</v>
+        <v>23.83520435983503</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>14.25606430474919</v>
+        <v>8.386731589054193</v>
       </c>
       <c r="C13">
-        <v>2.012589022216896</v>
+        <v>1.183990445580912</v>
       </c>
       <c r="D13">
-        <v>2.6615731550737</v>
+        <v>1.565782755960144</v>
       </c>
       <c r="E13">
-        <v>7.711378052803992</v>
+        <v>4.536543644029828</v>
       </c>
       <c r="F13">
-        <v>1.51415645145824</v>
+        <v>0.890766446527924</v>
       </c>
       <c r="G13">
-        <v>4.943737626585413</v>
+        <v>2.908362338620156</v>
       </c>
       <c r="H13">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="I13">
-        <v>33.44496487467107</v>
+        <v>19.67541233072086</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>10.68504623234148</v>
+        <v>6.285929471953192</v>
       </c>
       <c r="C14">
-        <v>1.161109051278979</v>
+        <v>0.6830714109120647</v>
       </c>
       <c r="D14">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="E14">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="F14">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="G14">
-        <v>2.542493636529642</v>
+        <v>1.495729202718937</v>
       </c>
       <c r="H14">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="I14">
-        <v>24.66187703388722</v>
+        <v>14.50839016604105</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>6.735920364031787</v>
+        <v>3.962689483629729</v>
       </c>
       <c r="C15">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="D15">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="E15">
-        <v>4.241257929042194</v>
+        <v>2.495099004216405</v>
       </c>
       <c r="F15">
-        <v>0.8451105775580874</v>
+        <v>0.4971719701551205</v>
       </c>
       <c r="G15">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="H15">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I15">
-        <v>16.73902354815449</v>
+        <v>9.847437172015413</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>3.96312986075051</v>
+        <v>2.331478427998365</v>
       </c>
       <c r="C16">
-        <v>0.8901836059805501</v>
+        <v>0.5236880816992495</v>
       </c>
       <c r="D16">
-        <v>0.5069663152521334</v>
+        <v>0.2982443344685989</v>
       </c>
       <c r="E16">
-        <v>1.927844513200998</v>
+        <v>1.134135911007457</v>
       </c>
       <c r="F16">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="G16">
-        <v>3.107492222425117</v>
+        <v>1.828113469989812</v>
       </c>
       <c r="H16">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I16">
-        <v>11.30848771841768</v>
+        <v>6.652695242184759</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>2.394682707379284</v>
+        <v>1.408773184408906</v>
       </c>
       <c r="C17">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="D17">
-        <v>0.1267415788130334</v>
+        <v>0.07456108361714972</v>
       </c>
       <c r="E17">
-        <v>0.7711378052803992</v>
+        <v>0.4536543644029825</v>
       </c>
       <c r="F17">
-        <v>1.126814103410783</v>
+        <v>0.6628959602068273</v>
       </c>
       <c r="G17">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="H17">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I17">
-        <v>8.11267381891623</v>
+        <v>4.772622817514336</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>1.792511032424259</v>
+        <v>1.054520278387952</v>
       </c>
       <c r="C18">
-        <v>1.006294511108448</v>
+        <v>0.5919952227904561</v>
       </c>
       <c r="D18">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="E18">
-        <v>0.2570459350934664</v>
+        <v>0.1512181214676609</v>
       </c>
       <c r="F18">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="G18">
-        <v>2.118744697108034</v>
+        <v>1.246441002265781</v>
       </c>
       <c r="I18">
-        <v>6.378828733113123</v>
+        <v>3.75261525857066</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>1.05029943306109</v>
+        <v>0.6178829756179414</v>
       </c>
       <c r="C19">
-        <v>0.4644436205115914</v>
+        <v>0.2732285643648258</v>
       </c>
       <c r="D19">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="E19">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="F19">
-        <v>0.7394717553633264</v>
+        <v>0.4350254738857304</v>
       </c>
       <c r="G19">
-        <v>3.107492222425117</v>
+        <v>1.828113469989812</v>
       </c>
       <c r="I19">
-        <v>5.870454735346957</v>
+        <v>3.453542795443589</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>1.428407228963081</v>
+        <v>0.8403208468404004</v>
       </c>
       <c r="C20">
-        <v>0.3483327153836935</v>
+        <v>0.2049214232736194</v>
       </c>
       <c r="D20">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="E20">
-        <v>1.028183740373866</v>
+        <v>0.6048724858706437</v>
       </c>
       <c r="F20">
-        <v>0.7042588146317394</v>
+        <v>0.4143099751292671</v>
       </c>
       <c r="G20">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="I20">
-        <v>5.584402993477907</v>
+        <v>3.285260783778004</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>2.870818450366978</v>
+        <v>1.688880133355707</v>
       </c>
       <c r="C21">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="D21">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="E21">
-        <v>0.6426148377336659</v>
+        <v>0.3780453036691522</v>
       </c>
       <c r="F21">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="G21">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="H21">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="I21">
-        <v>9.124779233806356</v>
+        <v>5.368036549738041</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>8.514427404015231</v>
+        <v>5.008971322342777</v>
       </c>
       <c r="C22">
-        <v>0.6966654307673871</v>
+        <v>0.4098428465472388</v>
       </c>
       <c r="D22">
-        <v>2.408089997447633</v>
+        <v>1.416660588725845</v>
       </c>
       <c r="E22">
-        <v>2.827505286028131</v>
+        <v>1.66339933614427</v>
       </c>
       <c r="F22">
-        <v>2.183202325358392</v>
+        <v>1.284360922900728</v>
       </c>
       <c r="G22">
-        <v>6.779983030745709</v>
+        <v>3.988611207250499</v>
       </c>
       <c r="H22">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I22">
-        <v>23.47896672671921</v>
+        <v>13.8124932461009</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>14.45212019892059</v>
+        <v>8.502069744502872</v>
       </c>
       <c r="C23">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="D23">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="E23">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="F23">
-        <v>2.993099962184893</v>
+        <v>1.760817394299385</v>
       </c>
       <c r="G23">
-        <v>9.32247666727535</v>
+        <v>5.484340409969436</v>
       </c>
       <c r="H23">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="I23">
-        <v>38.97809924661192</v>
+        <v>22.9305121837833</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>22.70047174656035</v>
+        <v>13.35451071302245</v>
       </c>
       <c r="C24">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="D24">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="E24">
-        <v>9.51069959845826</v>
+        <v>5.595070494303456</v>
       </c>
       <c r="F24">
-        <v>4.472043472911545</v>
+        <v>2.630868342070846</v>
       </c>
       <c r="G24">
-        <v>10.59372348554017</v>
+        <v>6.232205011328905</v>
       </c>
       <c r="H24">
-        <v>1.45095829949129</v>
+        <v>0.8535874659803621</v>
       </c>
       <c r="I24">
-        <v>52.52632490765471</v>
+        <v>30.90082781214713</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>22.0702920867237</v>
+        <v>12.98378092765167</v>
       </c>
       <c r="C25">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="D25">
-        <v>3.548764206764933</v>
+        <v>2.087710341280192</v>
       </c>
       <c r="E25">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="F25">
-        <v>3.732571717548218</v>
+        <v>2.195842868185115</v>
       </c>
       <c r="G25">
-        <v>12.71246818264821</v>
+        <v>7.478646013594684</v>
       </c>
       <c r="H25">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="I25">
-        <v>52.1885569023212</v>
+        <v>30.70212152550681</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>21.25806052515646</v>
+        <v>12.50595142650713</v>
       </c>
       <c r="C26">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="D26">
-        <v>5.449887888960432</v>
+        <v>3.206126595537439</v>
       </c>
       <c r="E26">
-        <v>6.940240247523591</v>
+        <v>4.082889279626846</v>
       </c>
       <c r="F26">
-        <v>7.429930494364852</v>
+        <v>4.370970237613768</v>
       </c>
       <c r="G26">
-        <v>29.94492505246021</v>
+        <v>17.61636616535637</v>
       </c>
       <c r="H26">
-        <v>1.174585290064378</v>
+        <v>0.6909993772221978</v>
       </c>
       <c r="I26">
-        <v>73.1265167395531</v>
+        <v>43.0197602105934</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>17.3509466341692</v>
+        <v>10.20742675720839</v>
       </c>
       <c r="C27">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="D27">
-        <v>3.548764206764933</v>
+        <v>2.087710341280192</v>
       </c>
       <c r="E27">
-        <v>6.811717279976862</v>
+        <v>4.007280218893014</v>
       </c>
       <c r="F27">
-        <v>7.183439909243742</v>
+        <v>4.225961746318525</v>
       </c>
       <c r="G27">
-        <v>25.84868530471802</v>
+        <v>15.20658022764253</v>
       </c>
       <c r="H27">
-        <v>0.8982122806374654</v>
+        <v>0.5284112884640336</v>
       </c>
       <c r="I27">
-        <v>62.68676376166131</v>
+        <v>36.87813484962754</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>18.63931393872413</v>
+        <v>10.96536320729974</v>
       </c>
       <c r="C28">
-        <v>1.857774482046366</v>
+        <v>1.092914257459303</v>
       </c>
       <c r="D28">
-        <v>5.323146310147401</v>
+        <v>3.131565511920289</v>
       </c>
       <c r="E28">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="F28">
-        <v>5.35236699120122</v>
+        <v>3.14875581098243</v>
       </c>
       <c r="G28">
-        <v>23.02369237524064</v>
+        <v>13.54465889128815</v>
       </c>
       <c r="H28">
-        <v>0.6218392712105527</v>
+        <v>0.3658231997058696</v>
       </c>
       <c r="I28">
-        <v>62.40098845382757</v>
+        <v>36.71001546195178</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>16.84680290629988</v>
+        <v>9.91084292891178</v>
       </c>
       <c r="C29">
-        <v>0.8901836059805501</v>
+        <v>0.5236880816992495</v>
       </c>
       <c r="D29">
-        <v>4.816179994895266</v>
+        <v>2.83332117745169</v>
       </c>
       <c r="E29">
-        <v>8.225469922990925</v>
+        <v>4.838979886965149</v>
       </c>
       <c r="F29">
-        <v>4.718534058032654</v>
+        <v>2.775876833366089</v>
       </c>
       <c r="G29">
-        <v>14.5487135868085</v>
+        <v>8.558894882225028</v>
       </c>
       <c r="H29">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I29">
-        <v>50.18407057972124</v>
+        <v>29.52289783499807</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>17.68704245274874</v>
+        <v>10.40514930940613</v>
       </c>
       <c r="C30">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="D30">
-        <v>4.562696837269201</v>
+        <v>2.68419901021739</v>
       </c>
       <c r="E30">
-        <v>6.811717279976862</v>
+        <v>4.007280218893014</v>
       </c>
       <c r="F30">
-        <v>7.253865790706916</v>
+        <v>4.267392743831452</v>
       </c>
       <c r="G30">
-        <v>17.79745545570749</v>
+        <v>10.47010441903256</v>
       </c>
       <c r="H30">
-        <v>0.5527460188538247</v>
+        <v>0.3251761775163284</v>
       </c>
       <c r="I30">
-        <v>55.63311471132884</v>
+        <v>32.72852805465693</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>18.07915424109155</v>
+        <v>10.6358256203035</v>
       </c>
       <c r="C31">
-        <v>0.9675908760658154</v>
+        <v>0.5692261757600539</v>
       </c>
       <c r="D31">
-        <v>4.816179994895266</v>
+        <v>2.83332117745169</v>
       </c>
       <c r="E31">
-        <v>7.197286182617058</v>
+        <v>4.234107401094507</v>
       </c>
       <c r="F31">
-        <v>5.774922279980264</v>
+        <v>3.39734179605999</v>
       </c>
       <c r="G31">
-        <v>16.52620863744266</v>
+        <v>9.72223981767309</v>
       </c>
       <c r="H31">
-        <v>1.381865047134561</v>
+        <v>0.812940443790821</v>
       </c>
       <c r="I31">
-        <v>54.74320725922718</v>
+        <v>32.20500243213365</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>21.27206451759727</v>
+        <v>12.51418986618204</v>
       </c>
       <c r="C32">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="D32">
-        <v>3.041797891512799</v>
+        <v>1.789466006811594</v>
       </c>
       <c r="E32">
-        <v>7.839901020350728</v>
+        <v>4.612152704763658</v>
       </c>
       <c r="F32">
-        <v>6.831310501927874</v>
+        <v>4.01880675875389</v>
       </c>
       <c r="G32">
-        <v>15.53746111212559</v>
+        <v>9.140567349949059</v>
       </c>
       <c r="H32">
-        <v>0.9673055329941932</v>
+        <v>0.5690583106535749</v>
       </c>
       <c r="I32">
-        <v>56.53483872265954</v>
+        <v>33.25900526693467</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>23.38666737616026</v>
+        <v>13.75819425709283</v>
       </c>
       <c r="C33">
-        <v>0.7740727008526525</v>
+        <v>0.4553809406080431</v>
       </c>
       <c r="D33">
-        <v>8.364944201660201</v>
+        <v>4.921031518731882</v>
       </c>
       <c r="E33">
-        <v>7.968423987897458</v>
+        <v>4.687761765497489</v>
       </c>
       <c r="F33">
-        <v>6.936949324122633</v>
+        <v>4.080953255023282</v>
       </c>
       <c r="G33">
-        <v>14.83121287975624</v>
+        <v>8.725087015860467</v>
       </c>
       <c r="H33">
-        <v>0.6909325235672807</v>
+        <v>0.4064702218954105</v>
       </c>
       <c r="I33">
-        <v>62.95320299401673</v>
+        <v>37.03487897470941</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>28.51212860949838</v>
+        <v>16.77346317810839</v>
       </c>
       <c r="C34">
-        <v>1.04499814615108</v>
+        <v>0.6147642698208582</v>
       </c>
       <c r="D34">
-        <v>4.942921573708299</v>
+        <v>2.90788226106884</v>
       </c>
       <c r="E34">
-        <v>8.09694695544419</v>
+        <v>4.76337082623132</v>
       </c>
       <c r="F34">
-        <v>4.155127006327263</v>
+        <v>2.444428853262676</v>
       </c>
       <c r="G34">
-        <v>5.649985858954759</v>
+        <v>3.32384267270875</v>
       </c>
       <c r="H34">
-        <v>1.520051551848018</v>
+        <v>0.8942344881699033</v>
       </c>
       <c r="I34">
-        <v>53.92215970193199</v>
+        <v>31.72198654937074</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>27.46182917643728</v>
+        <v>16.15558020249044</v>
       </c>
       <c r="C35">
-        <v>0.9288872410231829</v>
+        <v>0.5464571287296517</v>
       </c>
       <c r="D35">
-        <v>4.1824721008301</v>
+        <v>2.460515759365941</v>
       </c>
       <c r="E35">
-        <v>9.51069959845826</v>
+        <v>5.595070494303456</v>
       </c>
       <c r="F35">
-        <v>2.957887021453306</v>
+        <v>1.740101895542922</v>
       </c>
       <c r="G35">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="H35">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="I35">
-        <v>48.84938930947576</v>
+        <v>28.73771523963354</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>19.7596333339893</v>
+        <v>11.6244383812922</v>
       </c>
       <c r="C36">
-        <v>1.277219956406877</v>
+        <v>0.7513785520032713</v>
       </c>
       <c r="D36">
-        <v>3.675505785577968</v>
+        <v>2.162271424897343</v>
       </c>
       <c r="E36">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="F36">
-        <v>1.866285858774109</v>
+        <v>1.097921434092558</v>
       </c>
       <c r="G36">
-        <v>4.802487980111545</v>
+        <v>2.825266271802438</v>
       </c>
       <c r="H36">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I36">
-        <v>40.51592714784457</v>
+        <v>23.83520435983503</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>14.25606430474919</v>
+        <v>8.386731589054193</v>
       </c>
       <c r="C37">
-        <v>2.012589022216896</v>
+        <v>1.183990445580912</v>
       </c>
       <c r="D37">
-        <v>2.6615731550737</v>
+        <v>1.565782755960144</v>
       </c>
       <c r="E37">
-        <v>7.711378052803992</v>
+        <v>4.536543644029828</v>
       </c>
       <c r="F37">
-        <v>1.51415645145824</v>
+        <v>0.890766446527924</v>
       </c>
       <c r="G37">
-        <v>4.943737626585413</v>
+        <v>2.908362338620156</v>
       </c>
       <c r="H37">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="I37">
-        <v>33.44496487467107</v>
+        <v>19.67541233072086</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>10.68504623234148</v>
+        <v>6.285929471953192</v>
       </c>
       <c r="C38">
-        <v>1.161109051278979</v>
+        <v>0.6830714109120647</v>
       </c>
       <c r="D38">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="E38">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="F38">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="G38">
-        <v>2.542493636529642</v>
+        <v>1.495729202718937</v>
       </c>
       <c r="H38">
-        <v>0.3454662617836404</v>
+        <v>0.2032351109477052</v>
       </c>
       <c r="I38">
-        <v>24.66187703388722</v>
+        <v>14.50839016604105</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>6.735920364031787</v>
+        <v>3.962689483629729</v>
       </c>
       <c r="C39">
-        <v>1.548145401705305</v>
+        <v>0.9107618812160861</v>
       </c>
       <c r="D39">
-        <v>1.394157366943366</v>
+        <v>0.8201719197886471</v>
       </c>
       <c r="E39">
-        <v>4.241257929042194</v>
+        <v>2.495099004216405</v>
       </c>
       <c r="F39">
-        <v>0.8451105775580874</v>
+        <v>0.4971719701551205</v>
       </c>
       <c r="G39">
-        <v>1.836245404160296</v>
+        <v>1.080248868630344</v>
       </c>
       <c r="H39">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I39">
-        <v>16.73902354815449</v>
+        <v>9.847437172015413</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>3.96312986075051</v>
+        <v>2.331478427998365</v>
       </c>
       <c r="C40">
-        <v>0.8901836059805501</v>
+        <v>0.5236880816992495</v>
       </c>
       <c r="D40">
-        <v>0.5069663152521334</v>
+        <v>0.2982443344685989</v>
       </c>
       <c r="E40">
-        <v>1.927844513200998</v>
+        <v>1.134135911007457</v>
       </c>
       <c r="F40">
-        <v>0.7746846960949134</v>
+        <v>0.4557409726421938</v>
       </c>
       <c r="G40">
-        <v>3.107492222425117</v>
+        <v>1.828113469989812</v>
       </c>
       <c r="H40">
-        <v>0.1381865047134562</v>
+        <v>0.08129404437908209</v>
       </c>
       <c r="I40">
-        <v>11.30848771841768</v>
+        <v>6.652695242184759</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>2.394682707379284</v>
+        <v>1.408773184408906</v>
       </c>
       <c r="C41">
-        <v>0.6579617957247544</v>
+        <v>0.3870737995168366</v>
       </c>
       <c r="D41">
-        <v>0.1267415788130334</v>
+        <v>0.07456108361714972</v>
       </c>
       <c r="E41">
-        <v>0.7711378052803992</v>
+        <v>0.4536543644029825</v>
       </c>
       <c r="F41">
-        <v>1.126814103410783</v>
+        <v>0.6628959602068273</v>
       </c>
       <c r="G41">
-        <v>2.966242575951247</v>
+        <v>1.745017403172094</v>
       </c>
       <c r="H41">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I41">
-        <v>8.11267381891623</v>
+        <v>4.772622817514336</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>1.792511032424259</v>
+        <v>1.054520278387952</v>
       </c>
       <c r="C42">
-        <v>1.006294511108448</v>
+        <v>0.5919952227904561</v>
       </c>
       <c r="D42">
-        <v>0.2534831576260667</v>
+        <v>0.1491221672342994</v>
       </c>
       <c r="E42">
-        <v>0.2570459350934664</v>
+        <v>0.1512181214676609</v>
       </c>
       <c r="F42">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="G42">
-        <v>2.118744697108034</v>
+        <v>1.246441002265781</v>
       </c>
       <c r="I42">
-        <v>6.378828733113123</v>
+        <v>3.75261525857066</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>1.05029943306109</v>
+        <v>0.6178829756179414</v>
       </c>
       <c r="C43">
-        <v>0.4644436205115914</v>
+        <v>0.2732285643648258</v>
       </c>
       <c r="D43">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="E43">
-        <v>0.1285229675467332</v>
+        <v>0.07560906073383046</v>
       </c>
       <c r="F43">
-        <v>0.7394717553633264</v>
+        <v>0.4350254738857304</v>
       </c>
       <c r="G43">
-        <v>3.107492222425117</v>
+        <v>1.828113469989812</v>
       </c>
       <c r="I43">
-        <v>5.870454735346957</v>
+        <v>3.453542795443589</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>1.428407228963081</v>
+        <v>0.8403208468404004</v>
       </c>
       <c r="C44">
-        <v>0.3483327153836935</v>
+        <v>0.2049214232736194</v>
       </c>
       <c r="D44">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="E44">
-        <v>1.028183740373866</v>
+        <v>0.6048724858706437</v>
       </c>
       <c r="F44">
-        <v>0.7042588146317394</v>
+        <v>0.4143099751292671</v>
       </c>
       <c r="G44">
-        <v>1.694995757686427</v>
+        <v>0.9971528018126247</v>
       </c>
       <c r="I44">
-        <v>5.584402993477907</v>
+        <v>3.285260783778004</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>2.870818450366978</v>
+        <v>1.688880133355707</v>
       </c>
       <c r="C45">
-        <v>0.5418508905968565</v>
+        <v>0.3187666584256303</v>
       </c>
       <c r="D45">
-        <v>0.3802247364390999</v>
+        <v>0.2236832508514493</v>
       </c>
       <c r="E45">
-        <v>0.6426148377336659</v>
+        <v>0.3780453036691522</v>
       </c>
       <c r="F45">
-        <v>0.9507493997528482</v>
+        <v>0.5593184664245107</v>
       </c>
       <c r="G45">
-        <v>3.531241161846724</v>
+        <v>2.077401670442968</v>
       </c>
       <c r="H45">
-        <v>0.2072797570701843</v>
+        <v>0.1219410665686232</v>
       </c>
       <c r="I45">
-        <v>9.124779233806356</v>
+        <v>5.368036549738041</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>8.514427404015231</v>
+        <v>5.008971322342777</v>
       </c>
       <c r="C46">
-        <v>0.6966654307673871</v>
+        <v>0.4098428465472388</v>
       </c>
       <c r="D46">
-        <v>2.408089997447633</v>
+        <v>1.416660588725845</v>
       </c>
       <c r="E46">
-        <v>2.827505286028131</v>
+        <v>1.66339933614427</v>
       </c>
       <c r="F46">
-        <v>2.183202325358392</v>
+        <v>1.284360922900728</v>
       </c>
       <c r="G46">
-        <v>6.779983030745709</v>
+        <v>3.988611207250499</v>
       </c>
       <c r="H46">
-        <v>0.06909325235672809</v>
+        <v>0.04064702218954105</v>
       </c>
       <c r="I46">
-        <v>23.47896672671921</v>
+        <v>13.8124932461009</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>14.45212019892059</v>
+        <v>8.502069744502872</v>
       </c>
       <c r="C47">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="D47">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="E47">
-        <v>7.582855085257261</v>
+        <v>4.460934583295996</v>
       </c>
       <c r="F47">
-        <v>2.993099962184893</v>
+        <v>1.760817394299385</v>
       </c>
       <c r="G47">
-        <v>9.32247666727535</v>
+        <v>5.484340409969436</v>
       </c>
       <c r="H47">
-        <v>0.8291190282807372</v>
+        <v>0.4877642662744927</v>
       </c>
       <c r="I47">
-        <v>38.97809924661192</v>
+        <v>22.9305121837833</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>22.70047174656035</v>
+        <v>13.35451071302245</v>
       </c>
       <c r="C48">
-        <v>0.503147255554224</v>
+        <v>0.2959976113952281</v>
       </c>
       <c r="D48">
-        <v>3.295281049138867</v>
+        <v>1.938588174045894</v>
       </c>
       <c r="E48">
-        <v>9.51069959845826</v>
+        <v>5.595070494303456</v>
       </c>
       <c r="F48">
-        <v>4.472043472911545</v>
+        <v>2.630868342070846</v>
       </c>
       <c r="G48">
-        <v>10.59372348554017</v>
+        <v>6.232205011328905</v>
       </c>
       <c r="H48">
-        <v>1.45095829949129</v>
+        <v>0.8535874659803621</v>
       </c>
       <c r="I48">
-        <v>52.52632490765471</v>
+        <v>30.90082781214713</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>22.0702920867237</v>
+        <v>12.98378092765167</v>
       </c>
       <c r="C49">
-        <v>0.8514799709379176</v>
+        <v>0.5009190346688474</v>
       </c>
       <c r="D49">
-        <v>3.548764206764933</v>
+        <v>2.087710341280192</v>
       </c>
       <c r="E49">
-        <v>8.996607728271321</v>
+        <v>5.292634251368133</v>
       </c>
       <c r="F49">
-        <v>3.732571717548218</v>
+        <v>2.195842868185115</v>
       </c>
       <c r="G49">
-        <v>12.71246818264821</v>
+        <v>7.478646013594684</v>
       </c>
       <c r="H49">
-        <v>0.2763730094269123</v>
+        <v>0.1625880887581642</v>
       </c>
       <c r="I49">
-        <v>52.1885569023212</v>
+        <v>30.70212152550681</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>12.50595142650713</v>
+        <v>21.25806052515646</v>
       </c>
       <c r="C2">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D2">
-        <v>3.206126595537439</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="E2">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F2">
-        <v>4.370970237613768</v>
+        <v>7.429930494364852</v>
       </c>
       <c r="G2">
-        <v>17.61636616535637</v>
+        <v>29.94492505246021</v>
       </c>
       <c r="H2">
-        <v>0.6909993772221978</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="I2">
-        <v>43.0197602105934</v>
+        <v>73.1265167395531</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>9.301198392968743</v>
+        <v>15.8105074656796</v>
       </c>
       <c r="C3">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="D3">
-        <v>3.131565511920289</v>
+        <v>5.323146310147401</v>
       </c>
       <c r="E3">
-        <v>2.873144307885557</v>
+        <v>4.883872766775861</v>
       </c>
       <c r="F3">
-        <v>4.557409726421938</v>
+        <v>7.746846960949133</v>
       </c>
       <c r="G3">
-        <v>12.38131395584009</v>
+        <v>21.04619732460647</v>
       </c>
       <c r="H3">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="I3">
-        <v>33.3422693592607</v>
+        <v>56.67637398486175</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>10.05913484306009</v>
+        <v>17.09887477023454</v>
       </c>
       <c r="C4">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D4">
-        <v>2.609637926600241</v>
+        <v>4.435955258456166</v>
       </c>
       <c r="E4">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F4">
-        <v>3.749505274919867</v>
+        <v>6.373542272417241</v>
       </c>
       <c r="G4">
-        <v>12.21512182220465</v>
+        <v>20.76369803165873</v>
       </c>
       <c r="H4">
-        <v>0.2438821331372464</v>
+        <v>0.4145595141403686</v>
       </c>
       <c r="I4">
-        <v>33.5749355493698</v>
+        <v>57.07186824058171</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>9.375344350042891</v>
+        <v>15.93654339764693</v>
       </c>
       <c r="C5">
-        <v>0.7513785520032713</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="D5">
-        <v>3.429809846388888</v>
+        <v>5.830112625399535</v>
       </c>
       <c r="E5">
-        <v>3.326798672288541</v>
+        <v>5.655010572056262</v>
       </c>
       <c r="F5">
-        <v>3.14875581098243</v>
+        <v>5.35236699120122</v>
       </c>
       <c r="G5">
-        <v>11.05177688675659</v>
+        <v>18.78620298102457</v>
       </c>
       <c r="H5">
-        <v>0.4471172440849516</v>
+        <v>0.760025775924009</v>
       </c>
       <c r="I5">
-        <v>31.53098136254756</v>
+        <v>53.5974822996594</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>9.737835695738751</v>
+        <v>16.55271906504277</v>
       </c>
       <c r="C6">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D6">
-        <v>2.90788226106884</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="E6">
-        <v>4.309716461828336</v>
+        <v>7.325809150163791</v>
       </c>
       <c r="F6">
-        <v>3.64592778113755</v>
+        <v>6.197477568759307</v>
       </c>
       <c r="G6">
-        <v>11.46725722084518</v>
+        <v>19.49245121339392</v>
       </c>
       <c r="H6">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I6">
-        <v>33.46714556810925</v>
+        <v>56.88864300105413</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>9.573066902240638</v>
+        <v>16.27263921622648</v>
       </c>
       <c r="C7">
-        <v>0.7286095049728691</v>
+        <v>1.238516321364244</v>
       </c>
       <c r="D7">
-        <v>3.578932013623188</v>
+        <v>6.083595783025599</v>
       </c>
       <c r="E7">
-        <v>3.251189611554709</v>
+        <v>5.526487604509529</v>
       </c>
       <c r="F7">
-        <v>4.101668753779744</v>
+        <v>6.972162264854221</v>
       </c>
       <c r="G7">
-        <v>11.71654542129834</v>
+        <v>19.91620015281552</v>
       </c>
       <c r="H7">
-        <v>0.4471172440849516</v>
+        <v>0.760025775924009</v>
       </c>
       <c r="I7">
-        <v>33.39712945155444</v>
+        <v>56.7696271187196</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>10.08385016208481</v>
+        <v>17.14088674755698</v>
       </c>
       <c r="C8">
-        <v>0.7969166460640756</v>
+        <v>1.354627226492142</v>
       </c>
       <c r="D8">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E8">
-        <v>3.478016793756201</v>
+        <v>5.912056507149727</v>
       </c>
       <c r="F8">
-        <v>3.687358778650478</v>
+        <v>6.267903450222481</v>
       </c>
       <c r="G8">
-        <v>8.974375216313625</v>
+        <v>15.25496181917784</v>
       </c>
       <c r="H8">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I8">
-        <v>30.0500916668887</v>
+        <v>51.08021338442347</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>13.75819425709283</v>
+        <v>23.38666737616026</v>
       </c>
       <c r="C9">
-        <v>0.4553809406080431</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="D9">
-        <v>4.921031518731882</v>
+        <v>8.364944201660201</v>
       </c>
       <c r="E9">
-        <v>4.687761765497489</v>
+        <v>7.968423987897458</v>
       </c>
       <c r="F9">
-        <v>4.080953255023282</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="G9">
-        <v>8.725087015860467</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="H9">
-        <v>0.4064702218954105</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="I9">
-        <v>37.03487897470941</v>
+        <v>62.95320299401673</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>16.77346317810839</v>
+        <v>28.51212860949838</v>
       </c>
       <c r="C10">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D10">
-        <v>2.90788226106884</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="E10">
-        <v>4.76337082623132</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="F10">
-        <v>2.444428853262676</v>
+        <v>4.155127006327263</v>
       </c>
       <c r="G10">
-        <v>3.32384267270875</v>
+        <v>5.649985858954759</v>
       </c>
       <c r="H10">
-        <v>0.8942344881699033</v>
+        <v>1.520051551848018</v>
       </c>
       <c r="I10">
-        <v>31.72198654937074</v>
+        <v>53.92215970193199</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>16.15558020249044</v>
+        <v>27.46182917643728</v>
       </c>
       <c r="C11">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D11">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E11">
-        <v>5.595070494303456</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="F11">
-        <v>1.740101895542922</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="G11">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H11">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I11">
-        <v>28.73771523963354</v>
+        <v>48.84938930947576</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>11.6244383812922</v>
+        <v>19.7596333339893</v>
       </c>
       <c r="C12">
-        <v>0.7513785520032713</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="D12">
-        <v>2.162271424897343</v>
+        <v>3.675505785577968</v>
       </c>
       <c r="E12">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F12">
-        <v>1.097921434092558</v>
+        <v>1.866285858774109</v>
       </c>
       <c r="G12">
-        <v>2.825266271802438</v>
+        <v>4.802487980111545</v>
       </c>
       <c r="H12">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I12">
-        <v>23.83520435983503</v>
+        <v>40.51592714784457</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>8.386731589054193</v>
+        <v>14.25606430474919</v>
       </c>
       <c r="C13">
-        <v>1.183990445580912</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="D13">
-        <v>1.565782755960144</v>
+        <v>2.6615731550737</v>
       </c>
       <c r="E13">
-        <v>4.536543644029828</v>
+        <v>7.711378052803992</v>
       </c>
       <c r="F13">
-        <v>0.890766446527924</v>
+        <v>1.51415645145824</v>
       </c>
       <c r="G13">
-        <v>2.908362338620156</v>
+        <v>4.943737626585413</v>
       </c>
       <c r="H13">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I13">
-        <v>19.67541233072086</v>
+        <v>33.44496487467107</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>6.285929471953192</v>
+        <v>10.68504623234148</v>
       </c>
       <c r="C14">
-        <v>0.6830714109120647</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="D14">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="E14">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F14">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G14">
-        <v>1.495729202718937</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="H14">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I14">
-        <v>14.50839016604105</v>
+        <v>24.66187703388722</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>3.962689483629729</v>
+        <v>6.735920364031787</v>
       </c>
       <c r="C15">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D15">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="E15">
-        <v>2.495099004216405</v>
+        <v>4.241257929042194</v>
       </c>
       <c r="F15">
-        <v>0.4971719701551205</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="G15">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="H15">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I15">
-        <v>9.847437172015413</v>
+        <v>16.73902354815449</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>2.331478427998365</v>
+        <v>3.96312986075051</v>
       </c>
       <c r="C16">
-        <v>0.5236880816992495</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="D16">
-        <v>0.2982443344685989</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="E16">
-        <v>1.134135911007457</v>
+        <v>1.927844513200998</v>
       </c>
       <c r="F16">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="G16">
-        <v>1.828113469989812</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="H16">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I16">
-        <v>6.652695242184759</v>
+        <v>11.30848771841768</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>1.408773184408906</v>
+        <v>2.394682707379284</v>
       </c>
       <c r="C17">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D17">
-        <v>0.07456108361714972</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="E17">
-        <v>0.4536543644029825</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="F17">
-        <v>0.6628959602068273</v>
+        <v>1.126814103410783</v>
       </c>
       <c r="G17">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="H17">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I17">
-        <v>4.772622817514336</v>
+        <v>8.11267381891623</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>1.054520278387952</v>
+        <v>1.792511032424259</v>
       </c>
       <c r="C18">
-        <v>0.5919952227904561</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="D18">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="E18">
-        <v>0.1512181214676609</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="F18">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G18">
-        <v>1.246441002265781</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="I18">
-        <v>3.75261525857066</v>
+        <v>6.378828733113123</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.6178829756179414</v>
+        <v>1.05029943306109</v>
       </c>
       <c r="C19">
-        <v>0.2732285643648258</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="D19">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E19">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="F19">
-        <v>0.4350254738857304</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="G19">
-        <v>1.828113469989812</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="I19">
-        <v>3.453542795443589</v>
+        <v>5.870454735346957</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.8403208468404004</v>
+        <v>1.428407228963081</v>
       </c>
       <c r="C20">
-        <v>0.2049214232736194</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="D20">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E20">
-        <v>0.6048724858706437</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="F20">
-        <v>0.4143099751292671</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="G20">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="I20">
-        <v>3.285260783778004</v>
+        <v>5.584402993477907</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>1.688880133355707</v>
+        <v>2.870818450366978</v>
       </c>
       <c r="C21">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="D21">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E21">
-        <v>0.3780453036691522</v>
+        <v>0.6426148377336659</v>
       </c>
       <c r="F21">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G21">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H21">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I21">
-        <v>5.368036549738041</v>
+        <v>9.124779233806356</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>5.008971322342777</v>
+        <v>8.514427404015231</v>
       </c>
       <c r="C22">
-        <v>0.4098428465472388</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="D22">
-        <v>1.416660588725845</v>
+        <v>2.408089997447633</v>
       </c>
       <c r="E22">
-        <v>1.66339933614427</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="F22">
-        <v>1.284360922900728</v>
+        <v>2.183202325358392</v>
       </c>
       <c r="G22">
-        <v>3.988611207250499</v>
+        <v>6.779983030745709</v>
       </c>
       <c r="H22">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I22">
-        <v>13.8124932461009</v>
+        <v>23.47896672671921</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>8.502069744502872</v>
+        <v>14.45212019892059</v>
       </c>
       <c r="C23">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D23">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E23">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F23">
-        <v>1.760817394299385</v>
+        <v>2.993099962184893</v>
       </c>
       <c r="G23">
-        <v>5.484340409969436</v>
+        <v>9.32247666727535</v>
       </c>
       <c r="H23">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I23">
-        <v>22.9305121837833</v>
+        <v>38.97809924661192</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>13.35451071302245</v>
+        <v>22.70047174656035</v>
       </c>
       <c r="C24">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D24">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E24">
-        <v>5.595070494303456</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="F24">
-        <v>2.630868342070846</v>
+        <v>4.472043472911545</v>
       </c>
       <c r="G24">
-        <v>6.232205011328905</v>
+        <v>10.59372348554017</v>
       </c>
       <c r="H24">
-        <v>0.8535874659803621</v>
+        <v>1.45095829949129</v>
       </c>
       <c r="I24">
-        <v>30.90082781214713</v>
+        <v>52.52632490765471</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>12.98378092765167</v>
+        <v>22.0702920867237</v>
       </c>
       <c r="C25">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D25">
-        <v>2.087710341280192</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="E25">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F25">
-        <v>2.195842868185115</v>
+        <v>3.732571717548218</v>
       </c>
       <c r="G25">
-        <v>7.478646013594684</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="H25">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I25">
-        <v>30.70212152550681</v>
+        <v>52.1885569023212</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>12.50595142650713</v>
+        <v>21.25806052515646</v>
       </c>
       <c r="C26">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D26">
-        <v>3.206126595537439</v>
+        <v>5.449887888960432</v>
       </c>
       <c r="E26">
-        <v>4.082889279626846</v>
+        <v>6.940240247523591</v>
       </c>
       <c r="F26">
-        <v>4.370970237613768</v>
+        <v>7.429930494364852</v>
       </c>
       <c r="G26">
-        <v>17.61636616535637</v>
+        <v>29.94492505246021</v>
       </c>
       <c r="H26">
-        <v>0.6909993772221978</v>
+        <v>1.174585290064378</v>
       </c>
       <c r="I26">
-        <v>43.0197602105934</v>
+        <v>73.1265167395531</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>10.20742675720839</v>
+        <v>17.3509466341692</v>
       </c>
       <c r="C27">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D27">
-        <v>2.087710341280192</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="E27">
-        <v>4.007280218893014</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="F27">
-        <v>4.225961746318525</v>
+        <v>7.183439909243742</v>
       </c>
       <c r="G27">
-        <v>15.20658022764253</v>
+        <v>25.84868530471802</v>
       </c>
       <c r="H27">
-        <v>0.5284112884640336</v>
+        <v>0.8982122806374654</v>
       </c>
       <c r="I27">
-        <v>36.87813484962754</v>
+        <v>62.68676376166131</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>10.96536320729974</v>
+        <v>18.63931393872413</v>
       </c>
       <c r="C28">
-        <v>1.092914257459303</v>
+        <v>1.857774482046366</v>
       </c>
       <c r="D28">
-        <v>3.131565511920289</v>
+        <v>5.323146310147401</v>
       </c>
       <c r="E28">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F28">
-        <v>3.14875581098243</v>
+        <v>5.35236699120122</v>
       </c>
       <c r="G28">
-        <v>13.54465889128815</v>
+        <v>23.02369237524064</v>
       </c>
       <c r="H28">
-        <v>0.3658231997058696</v>
+        <v>0.6218392712105527</v>
       </c>
       <c r="I28">
-        <v>36.71001546195178</v>
+        <v>62.40098845382757</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>9.91084292891178</v>
+        <v>16.84680290629988</v>
       </c>
       <c r="C29">
-        <v>0.5236880816992495</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="D29">
-        <v>2.83332117745169</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="E29">
-        <v>4.838979886965149</v>
+        <v>8.225469922990925</v>
       </c>
       <c r="F29">
-        <v>2.775876833366089</v>
+        <v>4.718534058032654</v>
       </c>
       <c r="G29">
-        <v>8.558894882225028</v>
+        <v>14.5487135868085</v>
       </c>
       <c r="H29">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I29">
-        <v>29.52289783499807</v>
+        <v>50.18407057972124</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>10.40514930940613</v>
+        <v>17.68704245274874</v>
       </c>
       <c r="C30">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="D30">
-        <v>2.68419901021739</v>
+        <v>4.562696837269201</v>
       </c>
       <c r="E30">
-        <v>4.007280218893014</v>
+        <v>6.811717279976862</v>
       </c>
       <c r="F30">
-        <v>4.267392743831452</v>
+        <v>7.253865790706916</v>
       </c>
       <c r="G30">
-        <v>10.47010441903256</v>
+        <v>17.79745545570749</v>
       </c>
       <c r="H30">
-        <v>0.3251761775163284</v>
+        <v>0.5527460188538247</v>
       </c>
       <c r="I30">
-        <v>32.72852805465693</v>
+        <v>55.63311471132884</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>10.6358256203035</v>
+        <v>18.07915424109155</v>
       </c>
       <c r="C31">
-        <v>0.5692261757600539</v>
+        <v>0.9675908760658154</v>
       </c>
       <c r="D31">
-        <v>2.83332117745169</v>
+        <v>4.816179994895266</v>
       </c>
       <c r="E31">
-        <v>4.234107401094507</v>
+        <v>7.197286182617058</v>
       </c>
       <c r="F31">
-        <v>3.39734179605999</v>
+        <v>5.774922279980264</v>
       </c>
       <c r="G31">
-        <v>9.72223981767309</v>
+        <v>16.52620863744266</v>
       </c>
       <c r="H31">
-        <v>0.812940443790821</v>
+        <v>1.381865047134561</v>
       </c>
       <c r="I31">
-        <v>32.20500243213365</v>
+        <v>54.74320725922718</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>12.51418986618204</v>
+        <v>21.27206451759727</v>
       </c>
       <c r="C32">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D32">
-        <v>1.789466006811594</v>
+        <v>3.041797891512799</v>
       </c>
       <c r="E32">
-        <v>4.612152704763658</v>
+        <v>7.839901020350728</v>
       </c>
       <c r="F32">
-        <v>4.01880675875389</v>
+        <v>6.831310501927874</v>
       </c>
       <c r="G32">
-        <v>9.140567349949059</v>
+        <v>15.53746111212559</v>
       </c>
       <c r="H32">
-        <v>0.5690583106535749</v>
+        <v>0.9673055329941932</v>
       </c>
       <c r="I32">
-        <v>33.25900526693467</v>
+        <v>56.53483872265954</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>13.75819425709283</v>
+        <v>23.38666737616026</v>
       </c>
       <c r="C33">
-        <v>0.4553809406080431</v>
+        <v>0.7740727008526525</v>
       </c>
       <c r="D33">
-        <v>4.921031518731882</v>
+        <v>8.364944201660201</v>
       </c>
       <c r="E33">
-        <v>4.687761765497489</v>
+        <v>7.968423987897458</v>
       </c>
       <c r="F33">
-        <v>4.080953255023282</v>
+        <v>6.936949324122633</v>
       </c>
       <c r="G33">
-        <v>8.725087015860467</v>
+        <v>14.83121287975624</v>
       </c>
       <c r="H33">
-        <v>0.4064702218954105</v>
+        <v>0.6909325235672807</v>
       </c>
       <c r="I33">
-        <v>37.03487897470941</v>
+        <v>62.95320299401673</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>16.77346317810839</v>
+        <v>28.51212860949838</v>
       </c>
       <c r="C34">
-        <v>0.6147642698208582</v>
+        <v>1.04499814615108</v>
       </c>
       <c r="D34">
-        <v>2.90788226106884</v>
+        <v>4.942921573708299</v>
       </c>
       <c r="E34">
-        <v>4.76337082623132</v>
+        <v>8.09694695544419</v>
       </c>
       <c r="F34">
-        <v>2.444428853262676</v>
+        <v>4.155127006327263</v>
       </c>
       <c r="G34">
-        <v>3.32384267270875</v>
+        <v>5.649985858954759</v>
       </c>
       <c r="H34">
-        <v>0.8942344881699033</v>
+        <v>1.520051551848018</v>
       </c>
       <c r="I34">
-        <v>31.72198654937074</v>
+        <v>53.92215970193199</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>16.15558020249044</v>
+        <v>27.46182917643728</v>
       </c>
       <c r="C35">
-        <v>0.5464571287296517</v>
+        <v>0.9288872410231829</v>
       </c>
       <c r="D35">
-        <v>2.460515759365941</v>
+        <v>4.1824721008301</v>
       </c>
       <c r="E35">
-        <v>5.595070494303456</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="F35">
-        <v>1.740101895542922</v>
+        <v>2.957887021453306</v>
       </c>
       <c r="G35">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H35">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I35">
-        <v>28.73771523963354</v>
+        <v>48.84938930947576</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>11.6244383812922</v>
+        <v>19.7596333339893</v>
       </c>
       <c r="C36">
-        <v>0.7513785520032713</v>
+        <v>1.277219956406877</v>
       </c>
       <c r="D36">
-        <v>2.162271424897343</v>
+        <v>3.675505785577968</v>
       </c>
       <c r="E36">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F36">
-        <v>1.097921434092558</v>
+        <v>1.866285858774109</v>
       </c>
       <c r="G36">
-        <v>2.825266271802438</v>
+        <v>4.802487980111545</v>
       </c>
       <c r="H36">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I36">
-        <v>23.83520435983503</v>
+        <v>40.51592714784457</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>8.386731589054193</v>
+        <v>14.25606430474919</v>
       </c>
       <c r="C37">
-        <v>1.183990445580912</v>
+        <v>2.012589022216896</v>
       </c>
       <c r="D37">
-        <v>1.565782755960144</v>
+        <v>2.6615731550737</v>
       </c>
       <c r="E37">
-        <v>4.536543644029828</v>
+        <v>7.711378052803992</v>
       </c>
       <c r="F37">
-        <v>0.890766446527924</v>
+        <v>1.51415645145824</v>
       </c>
       <c r="G37">
-        <v>2.908362338620156</v>
+        <v>4.943737626585413</v>
       </c>
       <c r="H37">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I37">
-        <v>19.67541233072086</v>
+        <v>33.44496487467107</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>6.285929471953192</v>
+        <v>10.68504623234148</v>
       </c>
       <c r="C38">
-        <v>0.6830714109120647</v>
+        <v>1.161109051278979</v>
       </c>
       <c r="D38">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="E38">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F38">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G38">
-        <v>1.495729202718937</v>
+        <v>2.542493636529642</v>
       </c>
       <c r="H38">
-        <v>0.2032351109477052</v>
+        <v>0.3454662617836404</v>
       </c>
       <c r="I38">
-        <v>14.50839016604105</v>
+        <v>24.66187703388722</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>3.962689483629729</v>
+        <v>6.735920364031787</v>
       </c>
       <c r="C39">
-        <v>0.9107618812160861</v>
+        <v>1.548145401705305</v>
       </c>
       <c r="D39">
-        <v>0.8201719197886471</v>
+        <v>1.394157366943366</v>
       </c>
       <c r="E39">
-        <v>2.495099004216405</v>
+        <v>4.241257929042194</v>
       </c>
       <c r="F39">
-        <v>0.4971719701551205</v>
+        <v>0.8451105775580874</v>
       </c>
       <c r="G39">
-        <v>1.080248868630344</v>
+        <v>1.836245404160296</v>
       </c>
       <c r="H39">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I39">
-        <v>9.847437172015413</v>
+        <v>16.73902354815449</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>2.331478427998365</v>
+        <v>3.96312986075051</v>
       </c>
       <c r="C40">
-        <v>0.5236880816992495</v>
+        <v>0.8901836059805501</v>
       </c>
       <c r="D40">
-        <v>0.2982443344685989</v>
+        <v>0.5069663152521334</v>
       </c>
       <c r="E40">
-        <v>1.134135911007457</v>
+        <v>1.927844513200998</v>
       </c>
       <c r="F40">
-        <v>0.4557409726421938</v>
+        <v>0.7746846960949134</v>
       </c>
       <c r="G40">
-        <v>1.828113469989812</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="H40">
-        <v>0.08129404437908209</v>
+        <v>0.1381865047134562</v>
       </c>
       <c r="I40">
-        <v>6.652695242184759</v>
+        <v>11.30848771841768</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>1.408773184408906</v>
+        <v>2.394682707379284</v>
       </c>
       <c r="C41">
-        <v>0.3870737995168366</v>
+        <v>0.6579617957247544</v>
       </c>
       <c r="D41">
-        <v>0.07456108361714972</v>
+        <v>0.1267415788130334</v>
       </c>
       <c r="E41">
-        <v>0.4536543644029825</v>
+        <v>0.7711378052803992</v>
       </c>
       <c r="F41">
-        <v>0.6628959602068273</v>
+        <v>1.126814103410783</v>
       </c>
       <c r="G41">
-        <v>1.745017403172094</v>
+        <v>2.966242575951247</v>
       </c>
       <c r="H41">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I41">
-        <v>4.772622817514336</v>
+        <v>8.11267381891623</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>1.054520278387952</v>
+        <v>1.792511032424259</v>
       </c>
       <c r="C42">
-        <v>0.5919952227904561</v>
+        <v>1.006294511108448</v>
       </c>
       <c r="D42">
-        <v>0.1491221672342994</v>
+        <v>0.2534831576260667</v>
       </c>
       <c r="E42">
-        <v>0.1512181214676609</v>
+        <v>0.2570459350934664</v>
       </c>
       <c r="F42">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G42">
-        <v>1.246441002265781</v>
+        <v>2.118744697108034</v>
       </c>
       <c r="I42">
-        <v>3.75261525857066</v>
+        <v>6.378828733113123</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.6178829756179414</v>
+        <v>1.05029943306109</v>
       </c>
       <c r="C43">
-        <v>0.2732285643648258</v>
+        <v>0.4644436205115914</v>
       </c>
       <c r="D43">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E43">
-        <v>0.07560906073383046</v>
+        <v>0.1285229675467332</v>
       </c>
       <c r="F43">
-        <v>0.4350254738857304</v>
+        <v>0.7394717553633264</v>
       </c>
       <c r="G43">
-        <v>1.828113469989812</v>
+        <v>3.107492222425117</v>
       </c>
       <c r="I43">
-        <v>3.453542795443589</v>
+        <v>5.870454735346957</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.8403208468404004</v>
+        <v>1.428407228963081</v>
       </c>
       <c r="C44">
-        <v>0.2049214232736194</v>
+        <v>0.3483327153836935</v>
       </c>
       <c r="D44">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E44">
-        <v>0.6048724858706437</v>
+        <v>1.028183740373866</v>
       </c>
       <c r="F44">
-        <v>0.4143099751292671</v>
+        <v>0.7042588146317394</v>
       </c>
       <c r="G44">
-        <v>0.9971528018126247</v>
+        <v>1.694995757686427</v>
       </c>
       <c r="I44">
-        <v>3.285260783778004</v>
+        <v>5.584402993477907</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.688880133355707</v>
+        <v>2.870818450366978</v>
       </c>
       <c r="C45">
-        <v>0.3187666584256303</v>
+        <v>0.5418508905968565</v>
       </c>
       <c r="D45">
-        <v>0.2236832508514493</v>
+        <v>0.3802247364390999</v>
       </c>
       <c r="E45">
-        <v>0.3780453036691522</v>
+        <v>0.6426148377336659</v>
       </c>
       <c r="F45">
-        <v>0.5593184664245107</v>
+        <v>0.9507493997528482</v>
       </c>
       <c r="G45">
-        <v>2.077401670442968</v>
+        <v>3.531241161846724</v>
       </c>
       <c r="H45">
-        <v>0.1219410665686232</v>
+        <v>0.2072797570701843</v>
       </c>
       <c r="I45">
-        <v>5.368036549738041</v>
+        <v>9.124779233806356</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>5.008971322342777</v>
+        <v>8.514427404015231</v>
       </c>
       <c r="C46">
-        <v>0.4098428465472388</v>
+        <v>0.6966654307673871</v>
       </c>
       <c r="D46">
-        <v>1.416660588725845</v>
+        <v>2.408089997447633</v>
       </c>
       <c r="E46">
-        <v>1.66339933614427</v>
+        <v>2.827505286028131</v>
       </c>
       <c r="F46">
-        <v>1.284360922900728</v>
+        <v>2.183202325358392</v>
       </c>
       <c r="G46">
-        <v>3.988611207250499</v>
+        <v>6.779983030745709</v>
       </c>
       <c r="H46">
-        <v>0.04064702218954105</v>
+        <v>0.06909325235672809</v>
       </c>
       <c r="I46">
-        <v>13.8124932461009</v>
+        <v>23.47896672671921</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>8.502069744502872</v>
+        <v>14.45212019892059</v>
       </c>
       <c r="C47">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D47">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E47">
-        <v>4.460934583295996</v>
+        <v>7.582855085257261</v>
       </c>
       <c r="F47">
-        <v>1.760817394299385</v>
+        <v>2.993099962184893</v>
       </c>
       <c r="G47">
-        <v>5.484340409969436</v>
+        <v>9.32247666727535</v>
       </c>
       <c r="H47">
-        <v>0.4877642662744927</v>
+        <v>0.8291190282807372</v>
       </c>
       <c r="I47">
-        <v>22.9305121837833</v>
+        <v>38.97809924661192</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>13.35451071302245</v>
+        <v>22.70047174656035</v>
       </c>
       <c r="C48">
-        <v>0.2959976113952281</v>
+        <v>0.503147255554224</v>
       </c>
       <c r="D48">
-        <v>1.938588174045894</v>
+        <v>3.295281049138867</v>
       </c>
       <c r="E48">
-        <v>5.595070494303456</v>
+        <v>9.51069959845826</v>
       </c>
       <c r="F48">
-        <v>2.630868342070846</v>
+        <v>4.472043472911545</v>
       </c>
       <c r="G48">
-        <v>6.232205011328905</v>
+        <v>10.59372348554017</v>
       </c>
       <c r="H48">
-        <v>0.8535874659803621</v>
+        <v>1.45095829949129</v>
       </c>
       <c r="I48">
-        <v>30.90082781214713</v>
+        <v>52.52632490765471</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>12.98378092765167</v>
+        <v>22.0702920867237</v>
       </c>
       <c r="C49">
-        <v>0.5009190346688474</v>
+        <v>0.8514799709379176</v>
       </c>
       <c r="D49">
-        <v>2.087710341280192</v>
+        <v>3.548764206764933</v>
       </c>
       <c r="E49">
-        <v>5.292634251368133</v>
+        <v>8.996607728271321</v>
       </c>
       <c r="F49">
-        <v>2.195842868185115</v>
+        <v>3.732571717548218</v>
       </c>
       <c r="G49">
-        <v>7.478646013594684</v>
+        <v>12.71246818264821</v>
       </c>
       <c r="H49">
-        <v>0.1625880887581642</v>
+        <v>0.2763730094269123</v>
       </c>
       <c r="I49">
-        <v>30.70212152550681</v>
+        <v>52.1885569023212</v>
       </c>
     </row>
   </sheetData>
